--- a/BackTest/2019-11-02 BackTest LBA.xlsx
+++ b/BackTest/2019-11-02 BackTest LBA.xlsx
@@ -969,7 +969,9 @@
       <c r="J12" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L12" t="n">
         <v>24.48</v>
       </c>
@@ -1020,7 +1022,9 @@
       <c r="J13" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-6.666666666666761</v>
+      </c>
       <c r="L13" t="n">
         <v>24.48</v>
       </c>
@@ -1071,7 +1075,9 @@
       <c r="J14" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>24.47</v>
       </c>
@@ -1122,7 +1128,9 @@
       <c r="J15" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>24.46</v>
       </c>
@@ -1173,7 +1181,9 @@
       <c r="J16" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>24.48</v>
       </c>
@@ -1224,7 +1234,9 @@
       <c r="J17" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>16.66666666666662</v>
+      </c>
       <c r="L17" t="n">
         <v>24.47000000000001</v>
       </c>
@@ -1275,7 +1287,9 @@
       <c r="J18" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9.090909090909207</v>
+      </c>
       <c r="L18" t="n">
         <v>24.49</v>
       </c>
@@ -1326,7 +1340,9 @@
       <c r="J19" t="n">
         <v>2.200000000000006</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333314</v>
+      </c>
       <c r="L19" t="n">
         <v>24.52</v>
       </c>
@@ -1377,7 +1393,9 @@
       <c r="J20" t="n">
         <v>2.400000000000006</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>24.54</v>
       </c>
@@ -1428,7 +1446,9 @@
       <c r="J21" t="n">
         <v>2.600000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>24.56</v>
       </c>
@@ -1481,7 +1501,9 @@
       <c r="J22" t="n">
         <v>2.600000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L22" t="n">
         <v>24.56</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>3.703703703703753</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L23" t="n">
         <v>24.57</v>
@@ -1590,7 +1612,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L24" t="n">
         <v>24.58000000000001</v>
@@ -1639,7 +1661,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K25" t="n">
-        <v>4.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>24.60000000000001</v>
@@ -1688,7 +1710,7 @@
         <v>3.100000000000005</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.142857142857116</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L26" t="n">
         <v>24.56000000000001</v>
@@ -1737,7 +1759,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L27" t="n">
         <v>24.57000000000001</v>
@@ -1786,7 +1808,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>11.11111111111114</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L28" t="n">
         <v>24.58000000000001</v>
@@ -1835,7 +1857,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L29" t="n">
         <v>24.55000000000001</v>
@@ -1884,7 +1906,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>3.703703703703616</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L30" t="n">
         <v>24.54000000000001</v>
@@ -1933,7 +1955,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.000000000000045</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L31" t="n">
         <v>24.51000000000001</v>
@@ -1984,7 +2006,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.333333333333272</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L32" t="n">
         <v>24.49000000000001</v>
@@ -2035,7 +2057,7 @@
         <v>4.000000000000011</v>
       </c>
       <c r="K33" t="n">
-        <v>8.333333333333272</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L33" t="n">
         <v>24.50000000000001</v>
@@ -2086,7 +2108,7 @@
         <v>4.400000000000009</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.142857142857098</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L34" t="n">
         <v>24.47000000000001</v>
@@ -2137,7 +2159,7 @@
         <v>4.800000000000008</v>
       </c>
       <c r="K35" t="n">
-        <v>9.677419354838717</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L35" t="n">
         <v>24.48000000000001</v>
@@ -2188,7 +2210,7 @@
         <v>4.800000000000008</v>
       </c>
       <c r="K36" t="n">
-        <v>3.448275862068889</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L36" t="n">
         <v>24.53000000000001</v>
@@ -2239,7 +2261,7 @@
         <v>4.900000000000009</v>
       </c>
       <c r="K37" t="n">
-        <v>10.34482758620691</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L37" t="n">
         <v>24.55000000000001</v>
@@ -2290,7 +2312,7 @@
         <v>5.100000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>16.12903225806451</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>24.59000000000001</v>
@@ -2341,7 +2363,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>13.33333333333339</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L39" t="n">
         <v>24.66000000000001</v>
@@ -2392,7 +2414,7 @@
         <v>5.500000000000011</v>
       </c>
       <c r="K40" t="n">
-        <v>9.677419354838717</v>
+        <v>22.22222222222233</v>
       </c>
       <c r="L40" t="n">
         <v>24.70000000000001</v>
@@ -2443,7 +2465,7 @@
         <v>5.500000000000011</v>
       </c>
       <c r="K41" t="n">
-        <v>3.448275862069008</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L41" t="n">
         <v>24.74000000000001</v>
@@ -2494,7 +2516,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>9.677419354838717</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L42" t="n">
         <v>24.79000000000001</v>
@@ -2545,7 +2567,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K43" t="n">
-        <v>16.12903225806447</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="L43" t="n">
         <v>24.83000000000001</v>
@@ -2596,7 +2618,7 @@
         <v>5.900000000000013</v>
       </c>
       <c r="K44" t="n">
-        <v>12.49999999999992</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L44" t="n">
         <v>24.90000000000001</v>
@@ -2647,7 +2669,7 @@
         <v>6.000000000000014</v>
       </c>
       <c r="K45" t="n">
-        <v>15.1515151515151</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>24.94000000000002</v>
@@ -2698,7 +2720,7 @@
         <v>6.100000000000012</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333325</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L46" t="n">
         <v>24.99000000000002</v>
@@ -2749,7 +2771,7 @@
         <v>6.200000000000014</v>
       </c>
       <c r="K47" t="n">
-        <v>25.92592592592584</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L47" t="n">
         <v>25.04000000000001</v>
@@ -2800,7 +2822,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K48" t="n">
-        <v>28.57142857142843</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L48" t="n">
         <v>25.08000000000001</v>
@@ -2851,7 +2873,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K49" t="n">
-        <v>24.13793103448287</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L49" t="n">
         <v>25.08000000000002</v>
@@ -2902,7 +2924,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K50" t="n">
-        <v>31.25000000000004</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L50" t="n">
         <v>25.14000000000001</v>
@@ -2953,7 +2975,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>20.00000000000012</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L51" t="n">
         <v>25.17000000000002</v>
@@ -3004,7 +3026,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>11.11111111111109</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L52" t="n">
         <v>25.16000000000001</v>
@@ -3055,7 +3077,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>5.882352941176458</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L53" t="n">
         <v>25.14000000000001</v>
@@ -3106,7 +3128,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K54" t="n">
-        <v>25.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>25.15000000000001</v>
@@ -3157,7 +3179,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K55" t="n">
-        <v>6.666666666666635</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L55" t="n">
         <v>25.13000000000001</v>
@@ -3208,7 +3230,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.882352941176446</v>
+        <v>-40.00000000000011</v>
       </c>
       <c r="L56" t="n">
         <v>25.06000000000001</v>
@@ -3259,7 +3281,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.090909090909111</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L57" t="n">
         <v>24.98000000000001</v>
@@ -3310,7 +3332,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.857142857142898</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L58" t="n">
         <v>24.93</v>
@@ -3361,7 +3383,7 @@
         <v>8.800000000000008</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.11111111111118</v>
+        <v>-36.84210526315781</v>
       </c>
       <c r="L59" t="n">
         <v>24.89000000000001</v>
@@ -3412,7 +3434,7 @@
         <v>8.900000000000009</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L60" t="n">
         <v>24.83000000000001</v>
@@ -3463,7 +3485,7 @@
         <v>9.000000000000011</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.857142857142898</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L61" t="n">
         <v>24.79000000000001</v>
@@ -3514,7 +3536,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L62" t="n">
         <v>24.80000000000001</v>
@@ -3565,7 +3587,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K63" t="n">
-        <v>-5.555555555555633</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L63" t="n">
         <v>24.80000000000001</v>
@@ -3616,7 +3638,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.857142857142898</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>24.78000000000001</v>
@@ -3667,7 +3689,7 @@
         <v>9.70000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.51351351351353</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L65" t="n">
         <v>24.75000000000001</v>
@@ -3718,7 +3740,7 @@
         <v>9.70000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-16.66666666666662</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L66" t="n">
         <v>24.76000000000001</v>
@@ -3769,7 +3791,7 @@
         <v>9.900000000000013</v>
       </c>
       <c r="K67" t="n">
-        <v>-24.32432432432439</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L67" t="n">
         <v>24.75000000000001</v>
@@ -3820,7 +3842,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.05263157894727</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L68" t="n">
         <v>24.72000000000001</v>
@@ -3871,7 +3893,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111116</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L69" t="n">
         <v>24.72000000000001</v>
@@ -3922,7 +3944,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-25.71428571428562</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L70" t="n">
         <v>24.69000000000001</v>
@@ -3973,7 +3995,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-29.72972972972969</v>
+        <v>-62.49999999999994</v>
       </c>
       <c r="L71" t="n">
         <v>24.62000000000001</v>
@@ -4024,7 +4046,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.999999999999947</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L72" t="n">
         <v>24.57000000000001</v>
@@ -4075,7 +4097,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-18.18181818181809</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L73" t="n">
         <v>24.49000000000001</v>
@@ -4126,7 +4148,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-25.58139534883722</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L74" t="n">
         <v>24.40000000000001</v>
@@ -4177,7 +4199,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307796</v>
       </c>
       <c r="L75" t="n">
         <v>24.38000000000001</v>
@@ -4228,7 +4250,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.439024390243936</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>24.36000000000001</v>
@@ -4279,7 +4301,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.976744186046527</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L77" t="n">
         <v>24.34000000000001</v>
@@ -4330,7 +4352,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.99999999999993</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L78" t="n">
         <v>24.31000000000001</v>
@@ -4381,7 +4403,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307707</v>
+        <v>-4.347826086956589</v>
       </c>
       <c r="L79" t="n">
         <v>24.28000000000001</v>
@@ -4432,7 +4454,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307707</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L80" t="n">
         <v>24.28000000000001</v>
@@ -4483,7 +4505,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.263157894736822</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>24.33000000000001</v>
@@ -4534,7 +4556,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571428</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L82" t="n">
         <v>24.33000000000001</v>
@@ -4585,7 +4607,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-8.571428571428489</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L83" t="n">
         <v>24.38000000000002</v>
@@ -4636,7 +4658,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.555555555555539</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L84" t="n">
         <v>24.45000000000002</v>
@@ -4687,7 +4709,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.857142857142898</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L85" t="n">
         <v>24.46000000000002</v>
@@ -4738,7 +4760,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.857142857142898</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>24.47000000000001</v>
@@ -4789,7 +4811,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>3.030303030303076</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>24.50000000000002</v>
@@ -4840,7 +4862,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.250000000000097</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>24.51000000000001</v>
@@ -4891,7 +4913,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.030303030302965</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L89" t="n">
         <v>24.53000000000002</v>
@@ -4942,7 +4964,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>3.225806451612947</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L90" t="n">
         <v>24.54000000000001</v>
@@ -4993,7 +5015,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571421</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L91" t="n">
         <v>24.53000000000001</v>
@@ -5044,7 +5066,7 @@
         <v>13.80000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L92" t="n">
         <v>24.53000000000001</v>
@@ -5095,7 +5117,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>14.28571428571409</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L93" t="n">
         <v>24.51000000000001</v>
@@ -5146,7 +5168,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>19.99999999999986</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>24.48000000000001</v>
@@ -5197,7 +5219,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>-5.882352941176324</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L95" t="n">
         <v>24.46000000000002</v>
@@ -5248,7 +5270,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>24.46000000000002</v>
@@ -5299,7 +5321,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>5.263157894736901</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L97" t="n">
         <v>24.44000000000002</v>
@@ -5350,7 +5372,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>24.43000000000001</v>
@@ -5401,7 +5423,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.882352941176324</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>24.40000000000001</v>
@@ -5452,7 +5474,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>24.38000000000002</v>
@@ -5554,7 +5576,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>24.38000000000002</v>
@@ -5605,7 +5627,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.11111111111124</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>24.38000000000002</v>
@@ -5656,7 +5678,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>-17.64705882352939</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L104" t="n">
         <v>24.38000000000002</v>
@@ -5707,7 +5729,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>-17.64705882352939</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L105" t="n">
         <v>24.37000000000002</v>
@@ -5758,7 +5780,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>24.35000000000002</v>
@@ -5809,7 +5831,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>-15.78947368421049</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L107" t="n">
         <v>24.34000000000001</v>
@@ -5860,7 +5882,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>-5.263157894736705</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>24.34000000000001</v>
@@ -5911,7 +5933,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-22.22222222222224</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L109" t="n">
         <v>24.33000000000001</v>
@@ -5962,7 +5984,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-22.22222222222224</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L110" t="n">
         <v>24.31000000000001</v>
@@ -6013,7 +6035,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.882352941176324</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L111" t="n">
         <v>24.29000000000001</v>
@@ -6064,7 +6086,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-12.49999999999992</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L112" t="n">
         <v>24.28000000000001</v>
@@ -6115,7 +6137,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-22.22222222222209</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L113" t="n">
         <v>24.24000000000001</v>
@@ -6166,7 +6188,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-22.22222222222209</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L114" t="n">
         <v>24.20000000000001</v>
@@ -6217,7 +6239,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-17.64705882352939</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L115" t="n">
         <v>24.18000000000001</v>
@@ -6268,7 +6290,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-33.33333333333318</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L116" t="n">
         <v>24.15000000000001</v>
@@ -6319,7 +6341,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-44.44444444444429</v>
+        <v>-79.99999999999979</v>
       </c>
       <c r="L117" t="n">
         <v>24.08000000000001</v>
@@ -6370,7 +6392,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-13.04347826086955</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L118" t="n">
         <v>24.05000000000001</v>
@@ -6421,7 +6443,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-19.99999999999994</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L119" t="n">
         <v>24.01000000000001</v>
@@ -6472,7 +6494,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-30.76923076923056</v>
+        <v>-41.17647058823527</v>
       </c>
       <c r="L120" t="n">
         <v>23.95000000000002</v>
@@ -6523,7 +6545,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-38.46153846153834</v>
+        <v>-44.44444444444446</v>
       </c>
       <c r="L121" t="n">
         <v>23.87000000000002</v>
@@ -6574,7 +6596,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-35.99999999999984</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>23.79000000000001</v>
@@ -6625,7 +6647,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-40.74074074074056</v>
+        <v>-41.17647058823527</v>
       </c>
       <c r="L123" t="n">
         <v>23.72000000000002</v>
@@ -6676,7 +6698,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>-40.74074074074056</v>
+        <v>-41.17647058823527</v>
       </c>
       <c r="L124" t="n">
         <v>23.65000000000002</v>
@@ -6727,7 +6749,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>-30.76923076923074</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L125" t="n">
         <v>23.59000000000001</v>
@@ -6778,7 +6800,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-36.00000000000003</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L126" t="n">
         <v>23.53000000000001</v>
@@ -6829,7 +6851,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-38.46153846153844</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L127" t="n">
         <v>23.50000000000001</v>
@@ -6880,7 +6902,7 @@
         <v>17.80000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-46.15384615384616</v>
+        <v>-77.77777777777813</v>
       </c>
       <c r="L128" t="n">
         <v>23.41000000000001</v>
@@ -6931,7 +6953,7 @@
         <v>17.90000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>-46.15384615384616</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L129" t="n">
         <v>23.33000000000001</v>
@@ -6982,7 +7004,7 @@
         <v>18.20000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-31.03448275862066</v>
+        <v>-20</v>
       </c>
       <c r="L130" t="n">
         <v>23.30000000000001</v>
@@ -7033,7 +7055,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>-40.00000000000002</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>23.26000000000001</v>
@@ -7084,7 +7106,7 @@
         <v>18.50000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>-35.48387096774205</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L132" t="n">
         <v>23.23000000000001</v>
@@ -7135,7 +7157,7 @@
         <v>18.50000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>-28.57142857142867</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L133" t="n">
         <v>23.22000000000001</v>
@@ -7186,7 +7208,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-24.13793103448278</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L134" t="n">
         <v>23.22000000000001</v>
@@ -7237,7 +7259,7 @@
         <v>19.00000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.090909090909131</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L135" t="n">
         <v>23.25000000000001</v>
@@ -7288,7 +7310,7 @@
         <v>19.00000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-9.090909090909131</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L136" t="n">
         <v>23.28000000000001</v>
@@ -7339,7 +7361,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>23.52941176470594</v>
+        <v>66.6666666666666</v>
       </c>
       <c r="L137" t="n">
         <v>23.39000000000001</v>
@@ -7390,7 +7412,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-13.51351351351353</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>23.43000000000001</v>
@@ -7441,7 +7463,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>7.317073170731729</v>
+        <v>28.57142857142859</v>
       </c>
       <c r="L139" t="n">
         <v>23.54000000000001</v>
@@ -7492,7 +7514,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>12.82051282051282</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L140" t="n">
         <v>23.62000000000001</v>
@@ -7543,7 +7565,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>17.94871794871796</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L141" t="n">
         <v>23.73000000000001</v>
@@ -7594,7 +7616,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>17.94871794871796</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L142" t="n">
         <v>23.83000000000001</v>
@@ -7645,7 +7667,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>24.32432432432432</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L143" t="n">
         <v>23.93000000000001</v>
@@ -7696,7 +7718,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>26.31578947368423</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L144" t="n">
         <v>24.03000000000001</v>
@@ -7747,7 +7769,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>24.32432432432439</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L145" t="n">
         <v>24.09000000000001</v>
@@ -7798,7 +7820,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>24.32432432432439</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>24.15000000000002</v>
@@ -7849,7 +7871,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>31.42857142857147</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>24.15000000000002</v>
@@ -7900,7 +7922,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>35.29411764705878</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>24.23000000000002</v>
@@ -7951,7 +7973,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>41.17647058823527</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>24.26000000000002</v>
@@ -8002,7 +8024,7 @@
         <v>21.90000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>13.51351351351353</v>
+        <v>-50</v>
       </c>
       <c r="L150" t="n">
         <v>24.23000000000001</v>
@@ -8053,7 +8075,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>22.22222222222218</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L151" t="n">
         <v>24.20000000000002</v>
@@ -8104,7 +8126,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>13.51351351351353</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L152" t="n">
         <v>24.15000000000002</v>
@@ -8155,7 +8177,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>7.69230769230772</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L153" t="n">
         <v>24.08000000000002</v>
@@ -8206,7 +8228,7 @@
         <v>22.50000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>7.69230769230772</v>
+        <v>-53.84615384615405</v>
       </c>
       <c r="L154" t="n">
         <v>24.01000000000002</v>
@@ -8257,7 +8279,7 @@
         <v>22.60000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L155" t="n">
         <v>23.95000000000002</v>
@@ -8308,7 +8330,7 @@
         <v>22.80000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>-5.263157894736832</v>
+        <v>-50.00000000000033</v>
       </c>
       <c r="L156" t="n">
         <v>23.87000000000002</v>
@@ -8359,7 +8381,7 @@
         <v>22.80000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>-25.00000000000008</v>
+        <v>-50.00000000000033</v>
       </c>
       <c r="L157" t="n">
         <v>23.79000000000001</v>
@@ -8410,7 +8432,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.000000000000068</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L158" t="n">
         <v>23.70000000000001</v>
@@ -8461,7 +8483,7 @@
         <v>23.30000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-13.04347826086963</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>23.64000000000001</v>
@@ -8512,7 +8534,7 @@
         <v>23.60000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.07692307692318</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L160" t="n">
         <v>23.61000000000001</v>
@@ -8563,7 +8585,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-30.76923076923082</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>23.56000000000001</v>
@@ -8614,7 +8636,7 @@
         <v>23.80000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-25.92592592592591</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>23.54</v>
@@ -8665,7 +8687,7 @@
         <v>24.30000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>-6.24999999999998</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L163" t="n">
         <v>23.59</v>
@@ -8716,7 +8738,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-15.15151515151517</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L164" t="n">
         <v>23.61000000000001</v>
@@ -8767,7 +8789,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-15.15151515151517</v>
+        <v>17.64705882352939</v>
       </c>
       <c r="L165" t="n">
         <v>23.62</v>
@@ -8818,7 +8840,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>-20</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L166" t="n">
         <v>23.63000000000001</v>
@@ -8869,7 +8891,7 @@
         <v>24.90000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-24.32432432432439</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>23.62</v>
@@ -8920,7 +8942,7 @@
         <v>25.30000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>23.66</v>
@@ -8971,7 +8993,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-19.04761904761897</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L169" t="n">
         <v>23.64</v>
@@ -9022,7 +9044,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>-5.555555555555528</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L170" t="n">
         <v>23.65000000000001</v>
@@ -9073,7 +9095,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>-8.571428571428473</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L171" t="n">
         <v>23.67000000000001</v>
@@ -9124,7 +9146,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>-3.030303030302959</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L172" t="n">
         <v>23.68000000000001</v>
@@ -9175,7 +9197,7 @@
         <v>25.70000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.030303030303063</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>23.62</v>
@@ -9226,7 +9248,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.030303030303063</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L174" t="n">
         <v>23.59</v>
@@ -9277,7 +9299,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-6.249999999999951</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L175" t="n">
         <v>23.56</v>
@@ -9328,7 +9350,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>3.225806451612933</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L176" t="n">
         <v>23.56000000000001</v>
@@ -9379,7 +9401,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>3.225806451612933</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L177" t="n">
         <v>23.58000000000001</v>
@@ -9430,7 +9452,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>3.225806451612933</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>23.55</v>
@@ -9481,7 +9503,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>-3.448275862068999</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L179" t="n">
         <v>23.56000000000001</v>
@@ -9532,7 +9554,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L180" t="n">
         <v>23.55</v>
@@ -9583,7 +9605,7 @@
         <v>26.60000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>10.34482758620689</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L181" t="n">
         <v>23.56000000000001</v>
@@ -9634,7 +9656,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>3.448275862069008</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L182" t="n">
         <v>23.56000000000001</v>
@@ -9685,7 +9707,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>-16.66666666666657</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L183" t="n">
         <v>23.58000000000001</v>
@@ -9736,7 +9758,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>23.58000000000001</v>
@@ -9787,7 +9809,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-13.04347826086955</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L185" t="n">
         <v>23.58000000000001</v>
@@ -9838,7 +9860,7 @@
         <v>26.90000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.090909090909179</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L186" t="n">
         <v>23.56000000000001</v>
@@ -9889,7 +9911,7 @@
         <v>26.90000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L187" t="n">
         <v>23.54000000000001</v>
@@ -9940,7 +9962,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-29.41176470588231</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>23.52</v>
@@ -9991,7 +10013,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>23.48000000000001</v>
@@ -10042,7 +10064,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L190" t="n">
         <v>23.46000000000001</v>
@@ -10093,7 +10115,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L191" t="n">
         <v>23.42000000000001</v>
@@ -10144,7 +10166,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K192" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L192" t="n">
         <v>23.39000000000001</v>
@@ -10195,7 +10217,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>-7.692307692307525</v>
+        <v>-100</v>
       </c>
       <c r="L193" t="n">
         <v>23.36000000000001</v>
@@ -10246,7 +10268,7 @@
         <v>27.10000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-23.07692307692312</v>
+        <v>-100</v>
       </c>
       <c r="L194" t="n">
         <v>23.33000000000001</v>
@@ -10297,7 +10319,7 @@
         <v>27.10000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>-23.07692307692312</v>
+        <v>-100</v>
       </c>
       <c r="L195" t="n">
         <v>23.30000000000001</v>
@@ -10348,7 +10370,7 @@
         <v>27.20000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>-23.07692307692312</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L196" t="n">
         <v>23.29000000000001</v>
@@ -10399,7 +10421,7 @@
         <v>27.20000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>-23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>23.28000000000001</v>
@@ -10450,7 +10472,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>-23.07692307692312</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>23.27000000000001</v>
@@ -10501,7 +10523,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K199" t="n">
-        <v>-49.99999999999985</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L199" t="n">
         <v>23.25000000000001</v>
@@ -10552,7 +10574,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K200" t="n">
-        <v>-39.99999999999986</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L200" t="n">
         <v>23.23000000000001</v>
@@ -10603,7 +10625,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>-74.99999999999967</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L201" t="n">
         <v>23.21</v>
@@ -10654,7 +10676,7 @@
         <v>27.80000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.090909090909207</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L202" t="n">
         <v>23.23</v>
@@ -10709,7 +10731,7 @@
         <v>27.80000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>-9.090909090909207</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L203" t="n">
         <v>23.25</v>
@@ -10766,7 +10788,7 @@
         <v>27.90000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>9.090909090909207</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L204" t="n">
         <v>23.29</v>
@@ -10823,7 +10845,7 @@
         <v>27.90000000000003</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909207</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L205" t="n">
         <v>23.33000000000001</v>
@@ -10880,7 +10902,7 @@
         <v>27.90000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>20.00000000000028</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L206" t="n">
         <v>23.36000000000001</v>
@@ -10937,7 +10959,7 @@
         <v>28.00000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>9.090909090909207</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L207" t="n">
         <v>23.38000000000001</v>
@@ -10994,7 +11016,7 @@
         <v>28.20000000000003</v>
       </c>
       <c r="K208" t="n">
-        <v>33.33333333333314</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L208" t="n">
         <v>23.43000000000001</v>
@@ -11051,7 +11073,7 @@
         <v>28.40000000000003</v>
       </c>
       <c r="K209" t="n">
-        <v>14.28571428571421</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L209" t="n">
         <v>23.47000000000001</v>
@@ -11108,7 +11130,7 @@
         <v>28.50000000000003</v>
       </c>
       <c r="K210" t="n">
-        <v>20</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L210" t="n">
         <v>23.52000000000001</v>
@@ -11224,7 +11246,7 @@
         <v>28.70000000000003</v>
       </c>
       <c r="K212" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>23.61000000000001</v>
@@ -11275,7 +11297,7 @@
         <v>29.00000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>9.999999999999947</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L213" t="n">
         <v>23.61000000000001</v>
@@ -11326,7 +11348,7 @@
         <v>29.20000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>4.761904761904826</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L214" t="n">
         <v>23.58000000000001</v>
@@ -11377,7 +11399,7 @@
         <v>29.50000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>23.58000000000001</v>
@@ -11428,7 +11450,7 @@
         <v>29.60000000000003</v>
       </c>
       <c r="K216" t="n">
-        <v>8.333333333333297</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>23.57000000000001</v>
@@ -11479,7 +11501,7 @@
         <v>29.60000000000003</v>
       </c>
       <c r="K217" t="n">
-        <v>8.333333333333297</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L217" t="n">
         <v>23.57</v>
@@ -11530,7 +11552,7 @@
         <v>29.60000000000003</v>
       </c>
       <c r="K218" t="n">
-        <v>13.04347826086959</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>23.55</v>
@@ -11581,7 +11603,7 @@
         <v>29.60000000000003</v>
       </c>
       <c r="K219" t="n">
-        <v>18.18181818181809</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L219" t="n">
         <v>23.55</v>
@@ -11632,7 +11654,7 @@
         <v>29.80000000000003</v>
       </c>
       <c r="K220" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>23.56000000000001</v>
@@ -11683,7 +11705,7 @@
         <v>30.30000000000003</v>
       </c>
       <c r="K221" t="n">
-        <v>3.448275862068889</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L221" t="n">
         <v>23.51000000000001</v>
@@ -11734,7 +11756,7 @@
         <v>30.30000000000003</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.00000000000001</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L222" t="n">
         <v>23.45000000000001</v>
@@ -11785,7 +11807,7 @@
         <v>30.30000000000003</v>
       </c>
       <c r="K223" t="n">
-        <v>-12.00000000000001</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L223" t="n">
         <v>23.42000000000001</v>
@@ -11836,7 +11858,7 @@
         <v>30.40000000000003</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.00000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>23.42000000000001</v>
@@ -11887,7 +11909,7 @@
         <v>30.50000000000003</v>
       </c>
       <c r="K225" t="n">
-        <v>-7.692307692307796</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L225" t="n">
         <v>23.4</v>
@@ -11938,7 +11960,7 @@
         <v>30.50000000000003</v>
       </c>
       <c r="K226" t="n">
-        <v>-7.692307692307796</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L226" t="n">
         <v>23.39</v>
@@ -11989,7 +12011,7 @@
         <v>30.70000000000003</v>
       </c>
       <c r="K227" t="n">
-        <v>3.703703703703753</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L227" t="n">
         <v>23.40000000000001</v>
@@ -12091,7 +12113,7 @@
         <v>31.00000000000003</v>
       </c>
       <c r="K229" t="n">
-        <v>-7.69230769230765</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L229" t="n">
         <v>23.36000000000001</v>
@@ -12142,7 +12164,7 @@
         <v>31.20000000000003</v>
       </c>
       <c r="K230" t="n">
-        <v>-18.5185185185185</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L230" t="n">
         <v>23.30000000000001</v>
@@ -12193,7 +12215,7 @@
         <v>31.60000000000003</v>
       </c>
       <c r="K231" t="n">
-        <v>-6.666666666666635</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L231" t="n">
         <v>23.33000000000001</v>
@@ -12244,7 +12266,7 @@
         <v>31.60000000000003</v>
       </c>
       <c r="K232" t="n">
-        <v>-10.34482758620691</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L232" t="n">
         <v>23.36000000000001</v>
@@ -12295,7 +12317,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K233" t="n">
-        <v>3.703703703703753</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L233" t="n">
         <v>23.40000000000002</v>
@@ -12346,7 +12368,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K234" t="n">
-        <v>12.00000000000001</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L234" t="n">
         <v>23.43000000000002</v>
@@ -12397,7 +12419,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L235" t="n">
         <v>23.45000000000002</v>
@@ -12448,7 +12470,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K236" t="n">
-        <v>4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>23.47000000000002</v>
@@ -12499,7 +12521,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>4.761904761904826</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L237" t="n">
         <v>23.47000000000002</v>
@@ -12550,7 +12572,7 @@
         <v>31.90000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>13.04347826086959</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L238" t="n">
         <v>23.52000000000002</v>
@@ -12601,7 +12623,7 @@
         <v>31.90000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>13.04347826086959</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>23.57000000000001</v>
@@ -12652,7 +12674,7 @@
         <v>32.10000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>13.04347826086959</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>23.66000000000002</v>
@@ -12703,7 +12725,7 @@
         <v>32.20000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>36.84210526315781</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L241" t="n">
         <v>23.70000000000002</v>
@@ -12754,7 +12776,7 @@
         <v>32.50000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>45.45454545454547</v>
+        <v>75</v>
       </c>
       <c r="L242" t="n">
         <v>23.77000000000002</v>
@@ -12805,7 +12827,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>39.13043478260889</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L243" t="n">
         <v>23.82000000000002</v>
@@ -12856,7 +12878,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>36.36363636363652</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L244" t="n">
         <v>23.87000000000002</v>
@@ -12907,7 +12929,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>27.27272727272739</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L245" t="n">
         <v>23.91000000000002</v>
@@ -12958,7 +12980,7 @@
         <v>32.90000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>33.33333333333348</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L246" t="n">
         <v>23.97000000000002</v>
@@ -13009,7 +13031,7 @@
         <v>33.10000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000014</v>
       </c>
       <c r="L247" t="n">
         <v>24.05000000000002</v>
@@ -13060,7 +13082,7 @@
         <v>33.10000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>52.38095238095251</v>
+        <v>50.00000000000014</v>
       </c>
       <c r="L248" t="n">
         <v>24.11000000000002</v>
@@ -13111,7 +13133,7 @@
         <v>33.20000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>54.54545454545471</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L249" t="n">
         <v>24.18000000000002</v>
@@ -13162,7 +13184,7 @@
         <v>33.30000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>71.42857142857162</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L250" t="n">
         <v>24.24000000000002</v>
@@ -13213,7 +13235,7 @@
         <v>33.30000000000003</v>
       </c>
       <c r="K251" t="n">
-        <v>64.70588235294143</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L251" t="n">
         <v>24.31000000000002</v>
@@ -13264,7 +13286,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K252" t="n">
-        <v>55.55555555555565</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L252" t="n">
         <v>24.34000000000002</v>
@@ -13315,7 +13337,7 @@
         <v>33.50000000000003</v>
       </c>
       <c r="K253" t="n">
-        <v>55.55555555555565</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L253" t="n">
         <v>24.39000000000003</v>
@@ -13366,7 +13388,7 @@
         <v>33.50000000000003</v>
       </c>
       <c r="K254" t="n">
-        <v>55.55555555555565</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L254" t="n">
         <v>24.44000000000003</v>
@@ -13417,7 +13439,7 @@
         <v>33.50000000000003</v>
       </c>
       <c r="K255" t="n">
-        <v>55.55555555555565</v>
+        <v>66.66666666666607</v>
       </c>
       <c r="L255" t="n">
         <v>24.50000000000003</v>
@@ -13468,7 +13490,7 @@
         <v>33.60000000000003</v>
       </c>
       <c r="K256" t="n">
-        <v>47.36842105263154</v>
+        <v>20</v>
       </c>
       <c r="L256" t="n">
         <v>24.53000000000003</v>
@@ -13519,7 +13541,7 @@
         <v>34.10000000000003</v>
       </c>
       <c r="K257" t="n">
-        <v>16.66666666666662</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L257" t="n">
         <v>24.49000000000003</v>
@@ -13570,7 +13592,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K258" t="n">
-        <v>16.66666666666664</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L258" t="n">
         <v>24.47000000000003</v>
@@ -13621,7 +13643,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>12.00000000000008</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L259" t="n">
         <v>24.43000000000003</v>
@@ -13672,7 +13694,7 @@
         <v>34.50000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L260" t="n">
         <v>24.37000000000003</v>
@@ -13723,7 +13745,7 @@
         <v>34.60000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>8.333333333333481</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>24.32000000000003</v>
@@ -13774,7 +13796,7 @@
         <v>34.70000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909076</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L262" t="n">
         <v>24.27000000000003</v>
@@ -13825,7 +13847,7 @@
         <v>34.80000000000003</v>
       </c>
       <c r="K263" t="n">
-        <v>-9.090909090909207</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L263" t="n">
         <v>24.20000000000002</v>
@@ -13876,7 +13898,7 @@
         <v>34.90000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>-13.04347826086961</v>
+        <v>-57.14285714285754</v>
       </c>
       <c r="L264" t="n">
         <v>24.12000000000003</v>
@@ -13927,7 +13949,7 @@
         <v>35.00000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.347826086956602</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L265" t="n">
         <v>24.05000000000003</v>
@@ -13978,7 +14000,7 @@
         <v>35.00000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-14.28571428571436</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L266" t="n">
         <v>23.99000000000003</v>
@@ -14029,7 +14051,7 @@
         <v>35.20000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.28571428571419</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L267" t="n">
         <v>24.00000000000003</v>
@@ -14080,7 +14102,7 @@
         <v>35.30000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.090909090909104</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L268" t="n">
         <v>24.00000000000003</v>
@@ -14131,7 +14153,7 @@
         <v>35.50000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.347826086956602</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L269" t="n">
         <v>24.03000000000003</v>
@@ -14182,7 +14204,7 @@
         <v>35.70000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-16.66666666666682</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L270" t="n">
         <v>24.05000000000003</v>
@@ -14233,7 +14255,7 @@
         <v>35.80000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>-20.00000000000011</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L271" t="n">
         <v>24.05000000000003</v>
@@ -14284,7 +14306,7 @@
         <v>36.00000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>-23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>24.04000000000003</v>
@@ -14335,7 +14357,7 @@
         <v>36.40000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>-10.34482758620695</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>24.08000000000003</v>
@@ -14386,7 +14408,7 @@
         <v>36.90000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>-23.52941176470596</v>
+        <v>-5.263157894736715</v>
       </c>
       <c r="L274" t="n">
         <v>24.08000000000003</v>
@@ -14437,7 +14459,7 @@
         <v>37.10000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>-16.66666666666673</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L275" t="n">
         <v>24.09000000000003</v>
@@ -14488,7 +14510,7 @@
         <v>37.50000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.564102564102606</v>
+        <v>13.04347826086942</v>
       </c>
       <c r="L276" t="n">
         <v>24.14000000000003</v>
@@ -14539,7 +14561,7 @@
         <v>37.80000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>2.702702702702749</v>
+        <v>-3.999999999999904</v>
       </c>
       <c r="L277" t="n">
         <v>24.14000000000003</v>
@@ -14590,7 +14612,7 @@
         <v>37.80000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-2.857142857142802</v>
+        <v>-13.04347826086942</v>
       </c>
       <c r="L278" t="n">
         <v>24.13000000000003</v>
@@ -14641,7 +14663,7 @@
         <v>37.80000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-4.761904761904657</v>
       </c>
       <c r="L279" t="n">
         <v>24.10000000000003</v>
@@ -14692,7 +14714,7 @@
         <v>37.90000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>5.882352941176452</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L280" t="n">
         <v>24.10000000000003</v>
@@ -14743,7 +14765,7 @@
         <v>38.10000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.857142857142898</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L281" t="n">
         <v>24.09000000000004</v>
@@ -14794,7 +14816,7 @@
         <v>38.10000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L282" t="n">
         <v>24.10000000000003</v>
@@ -14845,7 +14867,7 @@
         <v>38.50000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>13.51351351351353</v>
+        <v>37.49999999999984</v>
       </c>
       <c r="L283" t="n">
         <v>24.11000000000003</v>
@@ -14896,7 +14918,7 @@
         <v>38.50000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>16.6666666666666</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L284" t="n">
         <v>24.17000000000003</v>
@@ -14947,7 +14969,7 @@
         <v>38.60000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L285" t="n">
         <v>24.22000000000003</v>
@@ -14998,7 +15020,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>13.51351351351348</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L286" t="n">
         <v>24.22000000000002</v>
@@ -15049,7 +15071,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>8.571428571428473</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L287" t="n">
         <v>24.25000000000002</v>
@@ -15100,7 +15122,7 @@
         <v>39.00000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>-2.702702702702638</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>24.25000000000002</v>
@@ -15151,7 +15173,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>2.564102564102597</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L289" t="n">
         <v>24.29000000000002</v>
@@ -15202,7 +15224,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>8.108108108108121</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L290" t="n">
         <v>24.32000000000002</v>
@@ -15253,7 +15275,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>11.11111111111104</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L291" t="n">
         <v>24.37000000000002</v>
@@ -15304,7 +15326,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>17.64705882352942</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L292" t="n">
         <v>24.42000000000002</v>
@@ -15355,7 +15377,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>6.666666666666643</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L293" t="n">
         <v>24.43000000000002</v>
@@ -15406,7 +15428,7 @@
         <v>39.50000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>30.76923076923078</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L294" t="n">
         <v>24.45000000000002</v>
@@ -15457,7 +15479,7 @@
         <v>40.00000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>3.448275862069016</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L295" t="n">
         <v>24.41000000000002</v>
@@ -15508,7 +15530,7 @@
         <v>40.20000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-3.70370370370363</v>
+        <v>-6.666666666666556</v>
       </c>
       <c r="L296" t="n">
         <v>24.40000000000002</v>
@@ -15559,7 +15581,7 @@
         <v>40.30000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>3.999999999999915</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L297" t="n">
         <v>24.38000000000002</v>
@@ -15610,7 +15632,7 @@
         <v>40.50000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>11.11111111111102</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L298" t="n">
         <v>24.41000000000002</v>
@@ -15661,7 +15683,7 @@
         <v>40.50000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>11.11111111111102</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L299" t="n">
         <v>24.40000000000002</v>
@@ -15712,7 +15734,7 @@
         <v>40.60000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>24.40000000000002</v>
@@ -15763,7 +15785,7 @@
         <v>41.00000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>3.448275862069024</v>
+        <v>-25</v>
       </c>
       <c r="L301" t="n">
         <v>24.36000000000002</v>
@@ -15814,7 +15836,7 @@
         <v>41.10000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L302" t="n">
         <v>24.31000000000002</v>
@@ -15865,7 +15887,7 @@
         <v>41.50000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>-10.00000000000018</v>
       </c>
       <c r="L303" t="n">
         <v>24.30000000000002</v>
@@ -15916,7 +15938,7 @@
         <v>41.80000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>24.25000000000002</v>
@@ -15967,7 +15989,7 @@
         <v>42.10000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>-2.85714285714291</v>
+        <v>5.263157894736754</v>
       </c>
       <c r="L305" t="n">
         <v>24.28000000000003</v>
@@ -16018,7 +16040,7 @@
         <v>42.10000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>11.11111111111113</v>
       </c>
       <c r="L306" t="n">
         <v>24.29000000000003</v>
@@ -16120,7 +16142,7 @@
         <v>42.40000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>17.64705882352943</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L308" t="n">
         <v>24.34000000000002</v>
@@ -16222,7 +16244,7 @@
         <v>42.70000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>3.030303030303082</v>
+        <v>29.41176470588243</v>
       </c>
       <c r="L310" t="n">
         <v>24.36000000000002</v>
@@ -16273,7 +16295,7 @@
         <v>42.80000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>29.41176470588243</v>
       </c>
       <c r="L311" t="n">
         <v>24.40000000000002</v>
@@ -16328,7 +16350,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>-8.108108108108151</v>
+        <v>-12.5</v>
       </c>
       <c r="L312" t="n">
         <v>24.42000000000002</v>
@@ -16387,7 +16409,7 @@
         <v>43.30000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>-12.82051282051285</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L313" t="n">
         <v>24.38000000000002</v>
@@ -16444,7 +16466,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.82051282051285</v>
+        <v>-23.07692307692279</v>
       </c>
       <c r="L314" t="n">
         <v>24.38000000000002</v>
@@ -16505,7 +16527,7 @@
         <v>43.60000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>-5.555555555555643</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L315" t="n">
         <v>24.33000000000002</v>
@@ -16566,7 +16588,7 @@
         <v>43.90000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>-2.702702702702739</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L316" t="n">
         <v>24.31000000000002</v>
@@ -16625,7 +16647,7 @@
         <v>43.90000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L317" t="n">
         <v>24.29000000000002</v>
@@ -16688,7 +16710,7 @@
         <v>44.00000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>-8.571428571428489</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L318" t="n">
         <v>24.23000000000003</v>
@@ -16751,7 +16773,7 @@
         <v>44.00000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.571428571428489</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L319" t="n">
         <v>24.19000000000003</v>
@@ -16814,7 +16836,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>-8.571428571428608</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L320" t="n">
         <v>24.15000000000003</v>
@@ -16877,7 +16899,7 @@
         <v>44.2</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L321" t="n">
         <v>24.11000000000002</v>
@@ -16940,7 +16962,7 @@
         <v>44.2</v>
       </c>
       <c r="K322" t="n">
-        <v>3.225806451612962</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L322" t="n">
         <v>24.10000000000003</v>
@@ -17003,7 +17025,7 @@
         <v>44.3</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L323" t="n">
         <v>24.10000000000003</v>
@@ -17066,7 +17088,7 @@
         <v>44.3</v>
       </c>
       <c r="K324" t="n">
-        <v>-4.000000000000068</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L324" t="n">
         <v>24.09000000000003</v>
@@ -17129,7 +17151,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>-13.04347826086946</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L325" t="n">
         <v>24.11000000000003</v>
@@ -17192,7 +17214,7 @@
         <v>44.60000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-20</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L326" t="n">
         <v>24.08000000000003</v>
@@ -17251,7 +17273,7 @@
         <v>44.60000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-20</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L327" t="n">
         <v>24.05000000000003</v>
@@ -17312,7 +17334,7 @@
         <v>44.60000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>-36.36363636363635</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L328" t="n">
         <v>24.03000000000003</v>
@@ -17371,7 +17393,7 @@
         <v>44.70000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>-23.8095238095238</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L329" t="n">
         <v>24.02000000000003</v>
@@ -17432,7 +17454,7 @@
         <v>44.70000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-30.00000000000007</v>
+        <v>-20</v>
       </c>
       <c r="L330" t="n">
         <v>24.00000000000003</v>
@@ -17491,7 +17513,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>-41.66666666666669</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L331" t="n">
         <v>23.94000000000003</v>
@@ -17550,7 +17572,7 @@
         <v>46.00000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>3.448275862069008</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L332" t="n">
         <v>23.96000000000003</v>
@@ -17605,7 +17627,7 @@
         <v>46.20000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>3.448275862069008</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L333" t="n">
         <v>23.97000000000003</v>
@@ -17662,7 +17684,7 @@
         <v>46.40000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>-6.666666666666746</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L334" t="n">
         <v>23.96000000000003</v>
@@ -17719,7 +17741,7 @@
         <v>46.60000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>6.666666666666746</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L335" t="n">
         <v>23.96000000000003</v>
@@ -17776,7 +17798,7 @@
         <v>46.70000000000002</v>
       </c>
       <c r="K336" t="n">
-        <v>-7.142857142857107</v>
+        <v>4.761904761904794</v>
       </c>
       <c r="L336" t="n">
         <v>23.97000000000002</v>
@@ -17833,7 +17855,7 @@
         <v>46.80000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>23.97000000000002</v>
@@ -17890,7 +17912,7 @@
         <v>46.90000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>-3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>23.98000000000003</v>
@@ -17947,7 +17969,7 @@
         <v>47.20000000000003</v>
       </c>
       <c r="K339" t="n">
-        <v>-12.5</v>
+        <v>-11.99999999999993</v>
       </c>
       <c r="L339" t="n">
         <v>23.95000000000003</v>
@@ -18004,7 +18026,7 @@
         <v>47.20000000000003</v>
       </c>
       <c r="K340" t="n">
-        <v>-16.1290322580644</v>
+        <v>9.999999999999858</v>
       </c>
       <c r="L340" t="n">
         <v>23.92000000000003</v>
@@ -18061,7 +18083,7 @@
         <v>47.40000000000003</v>
       </c>
       <c r="K341" t="n">
-        <v>-6.250000000000028</v>
+        <v>-28.57142857142832</v>
       </c>
       <c r="L341" t="n">
         <v>23.96000000000003</v>
@@ -18169,7 +18191,7 @@
         <v>47.80000000000004</v>
       </c>
       <c r="K343" t="n">
-        <v>-2.857142857142869</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>23.92000000000002</v>
@@ -18220,7 +18242,7 @@
         <v>47.90000000000004</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L344" t="n">
         <v>23.93000000000003</v>
@@ -18271,7 +18293,7 @@
         <v>48.10000000000004</v>
       </c>
       <c r="K345" t="n">
-        <v>-8.108108108108059</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L345" t="n">
         <v>23.90000000000003</v>
@@ -18322,7 +18344,7 @@
         <v>48.30000000000004</v>
       </c>
       <c r="K346" t="n">
-        <v>2.702702702702718</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L346" t="n">
         <v>23.90000000000002</v>
@@ -18373,7 +18395,7 @@
         <v>48.30000000000004</v>
       </c>
       <c r="K347" t="n">
-        <v>2.702702702702718</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>23.91000000000002</v>
@@ -18424,7 +18446,7 @@
         <v>48.40000000000004</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L348" t="n">
         <v>23.90000000000002</v>
@@ -18475,7 +18497,7 @@
         <v>48.40000000000004</v>
       </c>
       <c r="K349" t="n">
-        <v>-2.702702702702718</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L349" t="n">
         <v>23.92000000000002</v>
@@ -18526,7 +18548,7 @@
         <v>48.40000000000004</v>
       </c>
       <c r="K350" t="n">
-        <v>-2.702702702702718</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>23.94000000000002</v>
@@ -18577,7 +18599,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K351" t="n">
-        <v>15.151515151515</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L351" t="n">
         <v>23.95000000000002</v>
@@ -18628,7 +18650,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K352" t="n">
-        <v>-11.99999999999989</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L352" t="n">
         <v>23.94000000000002</v>
@@ -18679,7 +18701,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K353" t="n">
-        <v>-4.347826086956536</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>23.95000000000002</v>
@@ -18730,7 +18752,7 @@
         <v>48.70000000000005</v>
       </c>
       <c r="K354" t="n">
-        <v>-4.347826086956381</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>23.93000000000002</v>
@@ -18781,7 +18803,7 @@
         <v>48.70000000000005</v>
       </c>
       <c r="K355" t="n">
-        <v>-14.28571428571417</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L355" t="n">
         <v>23.93000000000002</v>
@@ -18832,7 +18854,7 @@
         <v>48.80000000000004</v>
       </c>
       <c r="K356" t="n">
-        <v>-4.761904761904794</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L356" t="n">
         <v>23.92000000000002</v>
@@ -18883,7 +18905,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K357" t="n">
-        <v>4.761904761904794</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L357" t="n">
         <v>23.92000000000002</v>
@@ -18934,7 +18956,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L358" t="n">
         <v>23.93000000000001</v>
@@ -18985,7 +19007,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K359" t="n">
-        <v>17.64705882352935</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L359" t="n">
         <v>23.94000000000002</v>
@@ -19036,7 +19058,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K360" t="n">
-        <v>17.64705882352935</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>23.95000000000002</v>
@@ -19087,7 +19109,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K361" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>23.95000000000002</v>
@@ -19138,7 +19160,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L362" t="n">
         <v>23.96000000000003</v>
@@ -19189,7 +19211,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K363" t="n">
-        <v>16.66666666666686</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L363" t="n">
         <v>23.97000000000003</v>
@@ -19240,7 +19262,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K364" t="n">
-        <v>9.090909090909207</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L364" t="n">
         <v>24.00000000000003</v>
@@ -19291,7 +19313,7 @@
         <v>49.10000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>39.99999999999986</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L365" t="n">
         <v>24.04000000000003</v>
@@ -19393,7 +19415,7 @@
         <v>49.50000000000004</v>
       </c>
       <c r="K367" t="n">
-        <v>16.66666666666657</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L367" t="n">
         <v>24.07000000000003</v>
@@ -19444,7 +19466,7 @@
         <v>49.80000000000004</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L368" t="n">
         <v>24.06000000000002</v>
@@ -19495,7 +19517,7 @@
         <v>50.20000000000005</v>
       </c>
       <c r="K369" t="n">
-        <v>22.22222222222229</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L369" t="n">
         <v>24.09000000000002</v>
@@ -19546,7 +19568,7 @@
         <v>50.90000000000005</v>
       </c>
       <c r="K370" t="n">
-        <v>43.99999999999994</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L370" t="n">
         <v>24.19000000000003</v>
@@ -19597,7 +19619,7 @@
         <v>50.90000000000005</v>
       </c>
       <c r="K371" t="n">
-        <v>41.66666666666657</v>
+        <v>47.36842105263136</v>
       </c>
       <c r="L371" t="n">
         <v>24.29000000000003</v>
@@ -19648,7 +19670,7 @@
         <v>51.10000000000005</v>
       </c>
       <c r="K372" t="n">
-        <v>46.15384615384598</v>
+        <v>52.38095238095206</v>
       </c>
       <c r="L372" t="n">
         <v>24.40000000000003</v>
@@ -19699,7 +19721,7 @@
         <v>51.60000000000005</v>
       </c>
       <c r="K373" t="n">
-        <v>54.83870967741918</v>
+        <v>61.53846153846126</v>
       </c>
       <c r="L373" t="n">
         <v>24.56000000000003</v>
@@ -19750,7 +19772,7 @@
         <v>51.70000000000005</v>
       </c>
       <c r="K374" t="n">
-        <v>66.6666666666665</v>
+        <v>61.53846153846122</v>
       </c>
       <c r="L374" t="n">
         <v>24.73000000000003</v>
@@ -19801,7 +19823,7 @@
         <v>52.10000000000005</v>
       </c>
       <c r="K375" t="n">
-        <v>47.05882352941163</v>
+        <v>49.99999999999974</v>
       </c>
       <c r="L375" t="n">
         <v>24.85000000000003</v>
@@ -19852,7 +19874,7 @@
         <v>52.30000000000005</v>
       </c>
       <c r="K376" t="n">
-        <v>48.57142857142846</v>
+        <v>49.99999999999987</v>
       </c>
       <c r="L376" t="n">
         <v>25.01000000000003</v>
@@ -19903,7 +19925,7 @@
         <v>52.70000000000006</v>
       </c>
       <c r="K377" t="n">
-        <v>31.57894736842088</v>
+        <v>44.82758620689627</v>
       </c>
       <c r="L377" t="n">
         <v>25.11000000000003</v>
@@ -19954,7 +19976,7 @@
         <v>52.90000000000006</v>
       </c>
       <c r="K378" t="n">
-        <v>34.99999999999977</v>
+        <v>40.74074074074041</v>
       </c>
       <c r="L378" t="n">
         <v>25.26000000000003</v>
@@ -20005,7 +20027,7 @@
         <v>53.00000000000006</v>
       </c>
       <c r="K379" t="n">
-        <v>31.70731707317063</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L379" t="n">
         <v>25.36000000000002</v>
@@ -20056,7 +20078,7 @@
         <v>53.70000000000006</v>
       </c>
       <c r="K380" t="n">
-        <v>12.49999999999998</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L380" t="n">
         <v>25.32000000000003</v>
@@ -20107,7 +20129,7 @@
         <v>54.10000000000006</v>
       </c>
       <c r="K381" t="n">
-        <v>19.23076923076917</v>
+        <v>-6.666666666666628</v>
       </c>
       <c r="L381" t="n">
         <v>25.32000000000003</v>
@@ -20158,7 +20180,7 @@
         <v>54.10000000000006</v>
       </c>
       <c r="K382" t="n">
-        <v>17.64705882352933</v>
+        <v>-27.99999999999989</v>
       </c>
       <c r="L382" t="n">
         <v>25.30000000000003</v>
@@ -20209,7 +20231,7 @@
         <v>54.20000000000006</v>
       </c>
       <c r="K383" t="n">
-        <v>19.23076923076917</v>
+        <v>-27.99999999999989</v>
       </c>
       <c r="L383" t="n">
         <v>25.24000000000003</v>
@@ -20260,7 +20282,7 @@
         <v>54.30000000000006</v>
       </c>
       <c r="K384" t="n">
-        <v>16.98113207547161</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L384" t="n">
         <v>25.16000000000003</v>
@@ -20311,7 +20333,7 @@
         <v>54.40000000000006</v>
       </c>
       <c r="K385" t="n">
-        <v>16.98113207547166</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L385" t="n">
         <v>25.13000000000003</v>
@@ -20362,7 +20384,7 @@
         <v>54.60000000000007</v>
       </c>
       <c r="K386" t="n">
-        <v>16.98113207547159</v>
+        <v>-15.78947368421052</v>
       </c>
       <c r="L386" t="n">
         <v>25.06000000000003</v>
@@ -20413,7 +20435,7 @@
         <v>54.80000000000007</v>
       </c>
       <c r="K387" t="n">
-        <v>16.98113207547166</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L387" t="n">
         <v>25.05000000000003</v>
@@ -20464,7 +20486,7 @@
         <v>54.80000000000007</v>
       </c>
       <c r="K388" t="n">
-        <v>23.99999999999992</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L388" t="n">
         <v>25.02000000000004</v>
@@ -20515,7 +20537,7 @@
         <v>54.80000000000007</v>
       </c>
       <c r="K389" t="n">
-        <v>17.39130434782602</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L389" t="n">
         <v>25.00000000000004</v>
@@ -20617,7 +20639,7 @@
         <v>55.00000000000007</v>
       </c>
       <c r="K391" t="n">
-        <v>2.439024390243924</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L391" t="n">
         <v>25.05000000000003</v>
@@ -20668,7 +20690,7 @@
         <v>55.10000000000007</v>
       </c>
       <c r="K392" t="n">
-        <v>-4.999999999999956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L392" t="n">
         <v>25.05000000000003</v>
@@ -20719,7 +20741,7 @@
         <v>55.10000000000007</v>
       </c>
       <c r="K393" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>25.04000000000003</v>
@@ -20770,7 +20792,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K394" t="n">
-        <v>-25.71428571428562</v>
+        <v>-25</v>
       </c>
       <c r="L394" t="n">
         <v>25.03000000000004</v>
@@ -20821,7 +20843,7 @@
         <v>55.30000000000008</v>
       </c>
       <c r="K395" t="n">
-        <v>-12.49999999999986</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L395" t="n">
         <v>25.02000000000004</v>
@@ -20872,7 +20894,7 @@
         <v>55.40000000000008</v>
       </c>
       <c r="K396" t="n">
-        <v>-16.1290322580644</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>25.04000000000003</v>
@@ -20923,7 +20945,7 @@
         <v>55.50000000000007</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L397" t="n">
         <v>25.05000000000004</v>
@@ -20974,7 +20996,7 @@
         <v>55.90000000000008</v>
       </c>
       <c r="K398" t="n">
-        <v>6.66666666666673</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L398" t="n">
         <v>25.10000000000004</v>
@@ -21025,7 +21047,7 @@
         <v>55.90000000000008</v>
       </c>
       <c r="K399" t="n">
-        <v>10.34482758620685</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L399" t="n">
         <v>25.15000000000004</v>
@@ -21076,7 +21098,7 @@
         <v>56.10000000000008</v>
       </c>
       <c r="K400" t="n">
-        <v>33.33333333333294</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L400" t="n">
         <v>25.19000000000004</v>
@@ -21127,7 +21149,7 @@
         <v>56.30000000000008</v>
       </c>
       <c r="K401" t="n">
-        <v>9.090909090908958</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L401" t="n">
         <v>25.20000000000004</v>
@@ -21178,7 +21200,7 @@
         <v>56.40000000000008</v>
       </c>
       <c r="K402" t="n">
-        <v>13.04347826086945</v>
+        <v>23.07692307692293</v>
       </c>
       <c r="L402" t="n">
         <v>25.23000000000004</v>
@@ -21229,7 +21251,7 @@
         <v>56.70000000000009</v>
       </c>
       <c r="K403" t="n">
-        <v>-4.000000000000012</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L403" t="n">
         <v>25.23000000000004</v>
@@ -21280,7 +21302,7 @@
         <v>57.00000000000009</v>
       </c>
       <c r="K404" t="n">
-        <v>11.11111111111104</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L404" t="n">
         <v>25.27000000000004</v>
@@ -21331,7 +21353,7 @@
         <v>57.00000000000009</v>
       </c>
       <c r="K405" t="n">
-        <v>7.692307692307598</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L405" t="n">
         <v>25.30000000000003</v>
@@ -21382,7 +21404,7 @@
         <v>57.00000000000009</v>
       </c>
       <c r="K406" t="n">
-        <v>16.66666666666662</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L406" t="n">
         <v>25.32000000000004</v>
@@ -21433,7 +21455,7 @@
         <v>57.50000000000009</v>
       </c>
       <c r="K407" t="n">
-        <v>-11.11111111111107</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L407" t="n">
         <v>25.28000000000004</v>
@@ -21484,7 +21506,7 @@
         <v>57.70000000000009</v>
       </c>
       <c r="K408" t="n">
-        <v>-3.448275862068991</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L408" t="n">
         <v>25.22000000000003</v>
@@ -21535,7 +21557,7 @@
         <v>57.70000000000009</v>
       </c>
       <c r="K409" t="n">
-        <v>-3.448275862068991</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L409" t="n">
         <v>25.16000000000004</v>
@@ -21586,7 +21608,7 @@
         <v>57.70000000000009</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L410" t="n">
         <v>25.12000000000004</v>
@@ -21637,7 +21659,7 @@
         <v>57.80000000000009</v>
       </c>
       <c r="K411" t="n">
-        <v>-7.142857142857197</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L411" t="n">
         <v>25.09000000000004</v>
@@ -21739,7 +21761,7 @@
         <v>57.90000000000009</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L413" t="n">
         <v>25.06000000000004</v>
@@ -21790,7 +21812,7 @@
         <v>58.20000000000009</v>
       </c>
       <c r="K414" t="n">
-        <v>13.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>25.06000000000004</v>
@@ -21841,7 +21863,7 @@
         <v>58.40000000000009</v>
       </c>
       <c r="K415" t="n">
-        <v>3.225806451612933</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L415" t="n">
         <v>25.04000000000004</v>
@@ -21892,7 +21914,7 @@
         <v>58.60000000000009</v>
       </c>
       <c r="K416" t="n">
-        <v>6.249999999999945</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L416" t="n">
         <v>25.04000000000004</v>
@@ -21943,7 +21965,7 @@
         <v>58.70000000000009</v>
       </c>
       <c r="K417" t="n">
-        <v>6.249999999999945</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L417" t="n">
         <v>25.10000000000003</v>
@@ -21994,7 +22016,7 @@
         <v>59.10000000000009</v>
       </c>
       <c r="K418" t="n">
-        <v>6.249999999999945</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L418" t="n">
         <v>25.18000000000004</v>
@@ -22045,7 +22067,7 @@
         <v>59.40000000000009</v>
       </c>
       <c r="K419" t="n">
-        <v>-2.857142857142886</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L419" t="n">
         <v>25.23000000000004</v>
@@ -22096,7 +22118,7 @@
         <v>59.50000000000009</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L420" t="n">
         <v>25.27000000000003</v>
@@ -22147,7 +22169,7 @@
         <v>59.60000000000009</v>
       </c>
       <c r="K421" t="n">
-        <v>3.030303030303063</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L421" t="n">
         <v>25.31000000000003</v>
@@ -22198,7 +22220,7 @@
         <v>59.70000000000009</v>
       </c>
       <c r="K422" t="n">
-        <v>3.030303030302962</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L422" t="n">
         <v>25.35000000000003</v>
@@ -22249,7 +22271,7 @@
         <v>59.90000000000009</v>
       </c>
       <c r="K423" t="n">
-        <v>6.249999999999972</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L423" t="n">
         <v>25.37000000000003</v>
@@ -22300,7 +22322,7 @@
         <v>60.10000000000009</v>
       </c>
       <c r="K424" t="n">
-        <v>3.225806451612825</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L424" t="n">
         <v>25.38000000000003</v>
@@ -22351,7 +22373,7 @@
         <v>60.40000000000009</v>
       </c>
       <c r="K425" t="n">
-        <v>11.76470588235288</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L425" t="n">
         <v>25.44000000000003</v>
@@ -22402,7 +22424,7 @@
         <v>60.60000000000009</v>
       </c>
       <c r="K426" t="n">
-        <v>16.66666666666657</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L426" t="n">
         <v>25.50000000000003</v>
@@ -22453,7 +22475,7 @@
         <v>60.7000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>37.49999999999986</v>
+        <v>12.49999999999994</v>
       </c>
       <c r="L427" t="n">
         <v>25.56000000000003</v>
@@ -22504,7 +22526,7 @@
         <v>60.90000000000009</v>
       </c>
       <c r="K428" t="n">
-        <v>37.49999999999994</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L428" t="n">
         <v>25.60000000000003</v>
@@ -22555,7 +22577,7 @@
         <v>61.10000000000009</v>
       </c>
       <c r="K429" t="n">
-        <v>29.41176470588231</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L429" t="n">
         <v>25.65000000000003</v>
@@ -22606,7 +22628,7 @@
         <v>61.3000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>22.22222222222219</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L430" t="n">
         <v>25.69000000000003</v>
@@ -22657,7 +22679,7 @@
         <v>61.5000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>29.72972972972969</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L431" t="n">
         <v>25.76000000000003</v>
@@ -22708,7 +22730,7 @@
         <v>61.5000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>27.77777777777771</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L432" t="n">
         <v>25.82000000000003</v>
@@ -22759,7 +22781,7 @@
         <v>61.7000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>31.57894736842094</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L433" t="n">
         <v>25.92000000000003</v>
@@ -22810,7 +22832,7 @@
         <v>61.8000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>22.22222222222219</v>
+        <v>28.57142857142861</v>
       </c>
       <c r="L434" t="n">
         <v>25.99000000000004</v>
@@ -22861,7 +22883,7 @@
         <v>62.10000000000009</v>
       </c>
       <c r="K435" t="n">
-        <v>18.91891891891888</v>
+        <v>-6.666666666666525</v>
       </c>
       <c r="L435" t="n">
         <v>26.00000000000004</v>
@@ -22912,7 +22934,7 @@
         <v>62.3000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>18.91891891891888</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>26.01000000000004</v>
@@ -22963,7 +22985,7 @@
         <v>62.3000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L437" t="n">
         <v>26.01000000000004</v>
@@ -23014,7 +23036,7 @@
         <v>62.5000000000001</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L438" t="n">
         <v>25.97000000000005</v>
@@ -23065,7 +23087,7 @@
         <v>62.60000000000009</v>
       </c>
       <c r="K439" t="n">
-        <v>12.49999999999994</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L439" t="n">
         <v>25.96000000000004</v>
@@ -23116,7 +23138,7 @@
         <v>62.70000000000009</v>
       </c>
       <c r="K440" t="n">
-        <v>12.50000000000008</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L440" t="n">
         <v>25.96000000000004</v>
@@ -23167,7 +23189,7 @@
         <v>62.70000000000009</v>
       </c>
       <c r="K441" t="n">
-        <v>16.12903225806455</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L441" t="n">
         <v>25.94000000000004</v>
@@ -23218,7 +23240,7 @@
         <v>63.20000000000009</v>
       </c>
       <c r="K442" t="n">
-        <v>-2.857142857142796</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L442" t="n">
         <v>25.87000000000004</v>
@@ -23269,7 +23291,7 @@
         <v>63.30000000000009</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>-60.00000000000043</v>
       </c>
       <c r="L443" t="n">
         <v>25.77000000000005</v>
@@ -23320,7 +23342,7 @@
         <v>63.40000000000009</v>
       </c>
       <c r="K444" t="n">
-        <v>-9.090909090909012</v>
+        <v>-53.84615384615391</v>
       </c>
       <c r="L444" t="n">
         <v>25.67000000000004</v>
@@ -23371,7 +23393,7 @@
         <v>63.50000000000009</v>
       </c>
       <c r="K445" t="n">
-        <v>-22.58064516129029</v>
+        <v>-83.33333333333363</v>
       </c>
       <c r="L445" t="n">
         <v>25.59000000000004</v>
@@ -23422,7 +23444,7 @@
         <v>63.8000000000001</v>
       </c>
       <c r="K446" t="n">
-        <v>-37.49999999999994</v>
+        <v>-86.66666666666671</v>
       </c>
       <c r="L446" t="n">
         <v>25.46000000000004</v>
@@ -23473,7 +23495,7 @@
         <v>63.9000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>-37.49999999999994</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L447" t="n">
         <v>25.34000000000004</v>
@@ -23524,7 +23546,7 @@
         <v>64.0000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>-41.93548387096765</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L448" t="n">
         <v>25.25000000000004</v>
@@ -23575,7 +23597,7 @@
         <v>64.10000000000009</v>
       </c>
       <c r="K449" t="n">
-        <v>-39.99999999999997</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L449" t="n">
         <v>25.14000000000004</v>
@@ -23626,7 +23648,7 @@
         <v>64.50000000000009</v>
       </c>
       <c r="K450" t="n">
-        <v>-18.75000000000011</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L450" t="n">
         <v>25.08000000000004</v>
@@ -23677,7 +23699,7 @@
         <v>64.50000000000009</v>
       </c>
       <c r="K451" t="n">
-        <v>-26.66666666666682</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L451" t="n">
         <v>25.02000000000004</v>
@@ -23728,7 +23750,7 @@
         <v>64.70000000000009</v>
       </c>
       <c r="K452" t="n">
-        <v>-31.25000000000011</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L452" t="n">
         <v>24.99000000000004</v>
@@ -23779,7 +23801,7 @@
         <v>64.8000000000001</v>
       </c>
       <c r="K453" t="n">
-        <v>-41.93548387096784</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L453" t="n">
         <v>24.96000000000004</v>
@@ -23830,7 +23852,7 @@
         <v>64.90000000000009</v>
       </c>
       <c r="K454" t="n">
-        <v>-35.48387096774205</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>24.95000000000004</v>
@@ -23881,7 +23903,7 @@
         <v>65.3000000000001</v>
       </c>
       <c r="K455" t="n">
-        <v>-12.50000000000006</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L455" t="n">
         <v>24.99000000000004</v>
@@ -23932,7 +23954,7 @@
         <v>65.40000000000009</v>
       </c>
       <c r="K456" t="n">
-        <v>-16.12903225806455</v>
+        <v>46.66666666666684</v>
       </c>
       <c r="L456" t="n">
         <v>25.07000000000004</v>
@@ -23983,7 +24005,7 @@
         <v>65.8000000000001</v>
       </c>
       <c r="K457" t="n">
-        <v>-25.71428571428567</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L457" t="n">
         <v>25.10000000000004</v>
@@ -24034,7 +24056,7 @@
         <v>66.10000000000009</v>
       </c>
       <c r="K458" t="n">
-        <v>-27.77777777777782</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>25.09000000000004</v>
@@ -24085,7 +24107,7 @@
         <v>66.2000000000001</v>
       </c>
       <c r="K459" t="n">
-        <v>-33.33333333333324</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L459" t="n">
         <v>25.08000000000004</v>
@@ -24136,7 +24158,7 @@
         <v>66.40000000000011</v>
       </c>
       <c r="K460" t="n">
-        <v>-35.13513513513499</v>
+        <v>-36.84210526315747</v>
       </c>
       <c r="L460" t="n">
         <v>25.01000000000004</v>
@@ -24187,7 +24209,7 @@
         <v>66.8000000000001</v>
       </c>
       <c r="K461" t="n">
-        <v>-41.46341463414624</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L461" t="n">
         <v>24.90000000000004</v>
@@ -24238,7 +24260,7 @@
         <v>67.10000000000009</v>
       </c>
       <c r="K462" t="n">
-        <v>-23.0769230769231</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L462" t="n">
         <v>24.84000000000004</v>
@@ -24289,7 +24311,7 @@
         <v>67.50000000000009</v>
       </c>
       <c r="K463" t="n">
-        <v>-28.57142857142858</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L463" t="n">
         <v>24.75000000000004</v>
@@ -24340,7 +24362,7 @@
         <v>67.60000000000008</v>
       </c>
       <c r="K464" t="n">
-        <v>-23.80952380952387</v>
+        <v>-56.52173913043508</v>
       </c>
       <c r="L464" t="n">
         <v>24.66000000000004</v>
@@ -24391,7 +24413,7 @@
         <v>67.60000000000008</v>
       </c>
       <c r="K465" t="n">
-        <v>-21.95121951219516</v>
+        <v>-63.6363636363639</v>
       </c>
       <c r="L465" t="n">
         <v>24.53000000000004</v>
@@ -24442,7 +24464,7 @@
         <v>67.60000000000008</v>
       </c>
       <c r="K466" t="n">
-        <v>-15.78947368421054</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L466" t="n">
         <v>24.39000000000004</v>
@@ -24493,7 +24515,7 @@
         <v>67.60000000000008</v>
       </c>
       <c r="K467" t="n">
-        <v>-18.91891891891899</v>
+        <v>-46.66666666666706</v>
       </c>
       <c r="L467" t="n">
         <v>24.29000000000005</v>
@@ -24544,7 +24566,7 @@
         <v>67.70000000000007</v>
       </c>
       <c r="K468" t="n">
-        <v>-18.91891891891903</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L468" t="n">
         <v>24.23000000000005</v>
@@ -24595,7 +24617,7 @@
         <v>67.70000000000007</v>
       </c>
       <c r="K469" t="n">
-        <v>-16.6666666666668</v>
+        <v>-23.07692307692369</v>
       </c>
       <c r="L469" t="n">
         <v>24.18000000000005</v>
@@ -24646,7 +24668,7 @@
         <v>67.70000000000007</v>
       </c>
       <c r="K470" t="n">
-        <v>-31.25000000000011</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L470" t="n">
         <v>24.15000000000004</v>
@@ -24697,7 +24719,7 @@
         <v>68.00000000000007</v>
       </c>
       <c r="K471" t="n">
-        <v>-20.00000000000006</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L471" t="n">
         <v>24.19000000000005</v>
@@ -24748,7 +24770,7 @@
         <v>68.30000000000007</v>
       </c>
       <c r="K472" t="n">
-        <v>-22.22222222222236</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L472" t="n">
         <v>24.17000000000005</v>
@@ -24799,7 +24821,7 @@
         <v>68.30000000000007</v>
       </c>
       <c r="K473" t="n">
-        <v>-20.00000000000014</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L473" t="n">
         <v>24.19000000000005</v>
@@ -24850,7 +24872,7 @@
         <v>68.50000000000007</v>
       </c>
       <c r="K474" t="n">
-        <v>-16.6666666666668</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>24.22000000000005</v>
@@ -24901,7 +24923,7 @@
         <v>68.70000000000007</v>
       </c>
       <c r="K475" t="n">
-        <v>-23.52941176470596</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L475" t="n">
         <v>24.27000000000005</v>
@@ -24952,7 +24974,7 @@
         <v>68.80000000000007</v>
       </c>
       <c r="K476" t="n">
-        <v>-23.52941176470606</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L476" t="n">
         <v>24.33000000000005</v>
@@ -25003,7 +25025,7 @@
         <v>68.90000000000006</v>
       </c>
       <c r="K477" t="n">
-        <v>-16.12903225806469</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L477" t="n">
         <v>24.38000000000005</v>
@@ -25054,7 +25076,7 @@
         <v>68.90000000000006</v>
       </c>
       <c r="K478" t="n">
-        <v>-7.142857142857197</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L478" t="n">
         <v>24.42000000000005</v>
@@ -25105,7 +25127,7 @@
         <v>69.00000000000006</v>
       </c>
       <c r="K479" t="n">
-        <v>-7.142857142857234</v>
+        <v>23.07692307692343</v>
       </c>
       <c r="L479" t="n">
         <v>24.45000000000005</v>
@@ -25207,7 +25229,7 @@
         <v>69.10000000000005</v>
       </c>
       <c r="K481" t="n">
-        <v>13.0434782608697</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L481" t="n">
         <v>24.47000000000005</v>
@@ -25258,7 +25280,7 @@
         <v>69.20000000000005</v>
       </c>
       <c r="K482" t="n">
-        <v>-4.76190476190477</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L482" t="n">
         <v>24.48000000000005</v>
@@ -25309,7 +25331,7 @@
         <v>69.20000000000005</v>
       </c>
       <c r="K483" t="n">
-        <v>17.64705882352986</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L483" t="n">
         <v>24.49000000000006</v>
@@ -25360,7 +25382,7 @@
         <v>69.70000000000005</v>
       </c>
       <c r="K484" t="n">
-        <v>-14.28571428571455</v>
+        <v>-80.00000000000234</v>
       </c>
       <c r="L484" t="n">
         <v>24.43000000000006</v>
@@ -25411,7 +25433,7 @@
         <v>69.90000000000005</v>
       </c>
       <c r="K485" t="n">
-        <v>-4.347826086956642</v>
+        <v>-63.63636363636472</v>
       </c>
       <c r="L485" t="n">
         <v>24.37000000000005</v>
@@ -25462,7 +25484,7 @@
         <v>69.90000000000005</v>
       </c>
       <c r="K486" t="n">
-        <v>-4.347826086956642</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L486" t="n">
         <v>24.30000000000005</v>
@@ -25513,7 +25535,7 @@
         <v>69.90000000000005</v>
       </c>
       <c r="K487" t="n">
-        <v>-4.347826086956642</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L487" t="n">
         <v>24.24000000000005</v>
@@ -25564,7 +25586,7 @@
         <v>70.00000000000006</v>
       </c>
       <c r="K488" t="n">
-        <v>-13.04347826086969</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L488" t="n">
         <v>24.17000000000005</v>
@@ -25615,7 +25637,7 @@
         <v>70.10000000000005</v>
       </c>
       <c r="K489" t="n">
-        <v>-8.333333333333384</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L489" t="n">
         <v>24.12000000000005</v>
@@ -25666,7 +25688,7 @@
         <v>70.20000000000005</v>
       </c>
       <c r="K490" t="n">
-        <v>-3.99999999999996</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L490" t="n">
         <v>24.08000000000005</v>
@@ -25717,7 +25739,7 @@
         <v>70.20000000000005</v>
       </c>
       <c r="K491" t="n">
-        <v>-18.18181818181833</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L491" t="n">
         <v>24.05000000000005</v>
@@ -25768,7 +25790,7 @@
         <v>70.70000000000005</v>
       </c>
       <c r="K492" t="n">
-        <v>16.66666666666691</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L492" t="n">
         <v>24.08000000000005</v>
@@ -25819,7 +25841,7 @@
         <v>71.30000000000004</v>
       </c>
       <c r="K493" t="n">
-        <v>-6.666666666666707</v>
+        <v>12.5</v>
       </c>
       <c r="L493" t="n">
         <v>24.05000000000005</v>
@@ -25870,7 +25892,7 @@
         <v>71.40000000000003</v>
       </c>
       <c r="K494" t="n">
-        <v>-17.24137931034505</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L494" t="n">
         <v>24.06000000000005</v>
@@ -25921,7 +25943,7 @@
         <v>71.40000000000003</v>
       </c>
       <c r="K495" t="n">
-        <v>-25.92592592592641</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L495" t="n">
         <v>24.05000000000005</v>
@@ -25972,7 +25994,7 @@
         <v>71.80000000000004</v>
       </c>
       <c r="K496" t="n">
-        <v>-13.33333333333341</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L496" t="n">
         <v>24.08000000000005</v>
@@ -26023,7 +26045,7 @@
         <v>71.90000000000003</v>
       </c>
       <c r="K497" t="n">
-        <v>-6.666666666666825</v>
+        <v>26.31578947368453</v>
       </c>
       <c r="L497" t="n">
         <v>24.12000000000004</v>
@@ -26074,7 +26096,7 @@
         <v>72.20000000000003</v>
       </c>
       <c r="K498" t="n">
-        <v>-15.1515151515153</v>
+        <v>4.761904761904875</v>
       </c>
       <c r="L498" t="n">
         <v>24.14000000000005</v>
@@ -26125,7 +26147,7 @@
         <v>72.40000000000003</v>
       </c>
       <c r="K499" t="n">
-        <v>-17.64705882352957</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L499" t="n">
         <v>24.13000000000005</v>
@@ -26176,7 +26198,7 @@
         <v>72.40000000000003</v>
       </c>
       <c r="K500" t="n">
-        <v>-17.64705882352957</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L500" t="n">
         <v>24.11000000000005</v>
@@ -26227,7 +26249,7 @@
         <v>72.50000000000003</v>
       </c>
       <c r="K501" t="n">
-        <v>-11.76470588235298</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L501" t="n">
         <v>24.10000000000005</v>
@@ -26278,7 +26300,7 @@
         <v>72.50000000000003</v>
       </c>
       <c r="K502" t="n">
-        <v>-9.090909090909159</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>24.04000000000005</v>
@@ -26329,7 +26351,7 @@
         <v>72.60000000000002</v>
       </c>
       <c r="K503" t="n">
-        <v>-11.76470588235308</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>24.03000000000005</v>
@@ -26380,7 +26402,7 @@
         <v>72.70000000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>6.666666666666707</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L504" t="n">
         <v>24.04000000000005</v>
@@ -26431,7 +26453,7 @@
         <v>72.70000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>0</v>
+        <v>-33.33333333333425</v>
       </c>
       <c r="L505" t="n">
         <v>24.05000000000004</v>
@@ -26482,7 +26504,7 @@
         <v>72.80000000000001</v>
       </c>
       <c r="K506" t="n">
-        <v>-3.448275862069059</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L506" t="n">
         <v>24.01000000000004</v>
@@ -26533,7 +26555,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L507" t="n">
         <v>23.97000000000004</v>
@@ -26584,7 +26606,7 @@
         <v>73.10000000000001</v>
       </c>
       <c r="K508" t="n">
-        <v>9.677419354838882</v>
+        <v>42.85714285714452</v>
       </c>
       <c r="L508" t="n">
         <v>23.98000000000004</v>
@@ -26635,7 +26657,7 @@
         <v>73.10000000000001</v>
       </c>
       <c r="K509" t="n">
-        <v>6.666666666666737</v>
+        <v>42.85714285714452</v>
       </c>
       <c r="L509" t="n">
         <v>24.01000000000004</v>
@@ -26686,7 +26708,7 @@
         <v>73.10000000000001</v>
       </c>
       <c r="K510" t="n">
-        <v>3.448275862068936</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L510" t="n">
         <v>24.04000000000005</v>
@@ -26737,7 +26759,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K511" t="n">
-        <v>9.677419354838724</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L511" t="n">
         <v>24.08000000000005</v>
@@ -26788,7 +26810,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K512" t="n">
-        <v>-7.692307692307902</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L512" t="n">
         <v>24.12000000000004</v>
@@ -26839,7 +26861,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K513" t="n">
-        <v>20.00000000000021</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L513" t="n">
         <v>24.17000000000004</v>
@@ -26890,7 +26912,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K514" t="n">
-        <v>26.31578947368453</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L514" t="n">
         <v>24.21000000000004</v>
@@ -26941,7 +26963,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K515" t="n">
-        <v>26.31578947368453</v>
+        <v>100</v>
       </c>
       <c r="L515" t="n">
         <v>24.25000000000004</v>
@@ -26992,7 +27014,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K516" t="n">
-        <v>6.666666666666651</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L516" t="n">
         <v>24.30000000000004</v>
@@ -27043,7 +27065,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L517" t="n">
         <v>24.34000000000004</v>
@@ -27094,7 +27116,7 @@
         <v>73.30000000000001</v>
       </c>
       <c r="K518" t="n">
-        <v>27.27272727272751</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L518" t="n">
         <v>24.36000000000003</v>
@@ -27145,7 +27167,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="K519" t="n">
-        <v>60.00000000000185</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L519" t="n">
         <v>24.39000000000004</v>
@@ -27196,7 +27218,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="K520" t="n">
-        <v>60.00000000000185</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L520" t="n">
         <v>24.42000000000004</v>
@@ -27247,7 +27269,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="K521" t="n">
-        <v>55.55555555555696</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L521" t="n">
         <v>24.43000000000004</v>
@@ -27298,7 +27320,7 @@
         <v>73.60000000000001</v>
       </c>
       <c r="K522" t="n">
-        <v>63.63636363636472</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L522" t="n">
         <v>24.46000000000004</v>
@@ -27349,7 +27371,7 @@
         <v>73.60000000000001</v>
       </c>
       <c r="K523" t="n">
-        <v>80.00000000000121</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L523" t="n">
         <v>24.49000000000004</v>
@@ -27400,7 +27422,7 @@
         <v>73.70000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>80.00000000000007</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L524" t="n">
         <v>24.53000000000004</v>
@@ -27451,7 +27473,7 @@
         <v>73.70000000000002</v>
       </c>
       <c r="K525" t="n">
-        <v>80.00000000000007</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L525" t="n">
         <v>24.57000000000004</v>
@@ -27502,7 +27524,7 @@
         <v>73.80000000000001</v>
       </c>
       <c r="K526" t="n">
-        <v>80.00000000000007</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L526" t="n">
         <v>24.60000000000004</v>
@@ -27553,7 +27575,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="K527" t="n">
-        <v>80.00000000000007</v>
+        <v>66.66666666666765</v>
       </c>
       <c r="L527" t="n">
         <v>24.64000000000004</v>
@@ -27604,7 +27626,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="K528" t="n">
-        <v>75.00000000000044</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L528" t="n">
         <v>24.68000000000003</v>
@@ -27655,7 +27677,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>75.00000000000044</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L529" t="n">
         <v>24.71000000000003</v>
@@ -27706,7 +27728,7 @@
         <v>74</v>
       </c>
       <c r="K530" t="n">
-        <v>77.77777777777844</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L530" t="n">
         <v>24.75000000000003</v>
@@ -27757,7 +27779,7 @@
         <v>74</v>
       </c>
       <c r="K531" t="n">
-        <v>71.42857142857258</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L531" t="n">
         <v>24.79000000000003</v>
@@ -27808,7 +27830,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="K532" t="n">
-        <v>75.00000000000178</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L532" t="n">
         <v>24.82000000000003</v>
@@ -27859,7 +27881,7 @@
         <v>74.19999999999999</v>
       </c>
       <c r="K533" t="n">
-        <v>77.77777777778006</v>
+        <v>60.00000000000355</v>
       </c>
       <c r="L533" t="n">
         <v>24.86000000000003</v>
@@ -27910,7 +27932,7 @@
         <v>74.49999999999999</v>
       </c>
       <c r="K534" t="n">
-        <v>83.33333333333512</v>
+        <v>75.00000000000267</v>
       </c>
       <c r="L534" t="n">
         <v>24.92000000000003</v>
@@ -27961,7 +27983,7 @@
         <v>74.49999999999999</v>
       </c>
       <c r="K535" t="n">
-        <v>83.33333333333512</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L535" t="n">
         <v>24.98000000000003</v>
@@ -28012,7 +28034,7 @@
         <v>74.79999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>46.66666666666774</v>
+        <v>33.33333333333425</v>
       </c>
       <c r="L536" t="n">
         <v>25.02000000000003</v>
@@ -28063,7 +28085,7 @@
         <v>74.89999999999998</v>
       </c>
       <c r="K537" t="n">
-        <v>37.50000000000089</v>
+        <v>20.0000000000005</v>
       </c>
       <c r="L537" t="n">
         <v>25.04000000000003</v>
@@ -28114,7 +28136,7 @@
         <v>75.19999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>47.36842105263261</v>
+        <v>38.46153846153938</v>
       </c>
       <c r="L538" t="n">
         <v>25.09000000000002</v>
@@ -28165,7 +28187,7 @@
         <v>75.19999999999997</v>
       </c>
       <c r="K539" t="n">
-        <v>44.44444444444526</v>
+        <v>33.33333333333422</v>
       </c>
       <c r="L539" t="n">
         <v>25.14000000000003</v>
@@ -28216,7 +28238,7 @@
         <v>75.49999999999997</v>
       </c>
       <c r="K540" t="n">
-        <v>23.8095238095242</v>
+        <v>6.666666666666887</v>
       </c>
       <c r="L540" t="n">
         <v>25.15000000000003</v>
@@ -28267,7 +28289,7 @@
         <v>75.69999999999997</v>
       </c>
       <c r="K541" t="n">
-        <v>13.04347826086977</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L541" t="n">
         <v>25.14000000000002</v>
@@ -28318,7 +28340,7 @@
         <v>75.79999999999998</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L542" t="n">
         <v>25.11000000000002</v>
@@ -28369,7 +28391,7 @@
         <v>75.99999999999999</v>
       </c>
       <c r="K543" t="n">
-        <v>8.333333333333384</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L543" t="n">
         <v>25.09000000000002</v>
@@ -28420,7 +28442,7 @@
         <v>76.19999999999999</v>
       </c>
       <c r="K544" t="n">
-        <v>12.00000000000017</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L544" t="n">
         <v>25.06000000000002</v>
@@ -28471,7 +28493,7 @@
         <v>76.19999999999999</v>
       </c>
       <c r="K545" t="n">
-        <v>12.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>25.03000000000002</v>
@@ -28522,7 +28544,7 @@
         <v>76.39999999999999</v>
       </c>
       <c r="K546" t="n">
-        <v>7.692307692307724</v>
+        <v>-6.666666666666698</v>
       </c>
       <c r="L546" t="n">
         <v>25.01000000000002</v>
@@ -28573,7 +28595,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="K547" t="n">
-        <v>-3.703703703703772</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L547" t="n">
         <v>24.98000000000003</v>
@@ -28624,7 +28646,7 @@
         <v>76.69999999999999</v>
       </c>
       <c r="K548" t="n">
-        <v>0</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L548" t="n">
         <v>24.93000000000002</v>
@@ -28675,7 +28697,7 @@
         <v>76.79999999999998</v>
       </c>
       <c r="K549" t="n">
-        <v>-3.448275862069042</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L549" t="n">
         <v>24.87000000000002</v>
@@ -28726,7 +28748,7 @@
         <v>76.79999999999998</v>
       </c>
       <c r="K550" t="n">
-        <v>-7.14285714285716</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L550" t="n">
         <v>24.84000000000002</v>
@@ -28777,7 +28799,7 @@
         <v>77.09999999999998</v>
       </c>
       <c r="K551" t="n">
-        <v>-16.12903225806462</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L551" t="n">
         <v>24.80000000000002</v>
@@ -28828,7 +28850,7 @@
         <v>77.29999999999998</v>
       </c>
       <c r="K552" t="n">
-        <v>-12.5</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L552" t="n">
         <v>24.79000000000002</v>
@@ -28879,7 +28901,7 @@
         <v>77.49999999999999</v>
       </c>
       <c r="K553" t="n">
-        <v>-21.21212121212131</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L553" t="n">
         <v>24.74000000000002</v>
@@ -28930,7 +28952,7 @@
         <v>77.49999999999999</v>
       </c>
       <c r="K554" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L554" t="n">
         <v>24.67000000000002</v>
@@ -28981,7 +29003,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="K555" t="n">
-        <v>-29.032258064516</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L555" t="n">
         <v>24.61000000000002</v>
@@ -29032,7 +29054,7 @@
         <v>77.89999999999999</v>
       </c>
       <c r="K556" t="n">
-        <v>-29.03225806451612</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L556" t="n">
         <v>24.54000000000002</v>
@@ -29083,7 +29105,7 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K557" t="n">
-        <v>-31.24999999999983</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L557" t="n">
         <v>24.47000000000002</v>
@@ -29134,7 +29156,7 @@
         <v>78.19999999999999</v>
       </c>
       <c r="K558" t="n">
-        <v>-39.99999999999979</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L558" t="n">
         <v>24.40000000000002</v>
@@ -29185,7 +29207,7 @@
         <v>78.99999999999999</v>
       </c>
       <c r="K559" t="n">
-        <v>-10.52631578947371</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L559" t="n">
         <v>24.42000000000002</v>
@@ -29236,7 +29258,7 @@
         <v>79.19999999999999</v>
       </c>
       <c r="K560" t="n">
-        <v>-8.108108108108091</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L560" t="n">
         <v>24.42000000000002</v>
@@ -29287,7 +29309,7 @@
         <v>79.49999999999999</v>
       </c>
       <c r="K561" t="n">
-        <v>-10.52631578947371</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L561" t="n">
         <v>24.42000000000002</v>
@@ -29338,7 +29360,7 @@
         <v>79.79999999999998</v>
       </c>
       <c r="K562" t="n">
-        <v>-14.99999999999995</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L562" t="n">
         <v>24.37000000000002</v>
@@ -29389,7 +29411,7 @@
         <v>79.89999999999998</v>
       </c>
       <c r="K563" t="n">
-        <v>-23.07692307692309</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L563" t="n">
         <v>24.33000000000002</v>
@@ -29440,7 +29462,7 @@
         <v>79.89999999999998</v>
       </c>
       <c r="K564" t="n">
-        <v>-29.72972972972986</v>
+        <v>-21.73913043478277</v>
       </c>
       <c r="L564" t="n">
         <v>24.29000000000002</v>
@@ -29491,7 +29513,7 @@
         <v>79.89999999999998</v>
       </c>
       <c r="K565" t="n">
-        <v>-29.72972972972986</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L565" t="n">
         <v>24.24000000000002</v>
@@ -29542,7 +29564,7 @@
         <v>80.39999999999998</v>
       </c>
       <c r="K566" t="n">
-        <v>-35.00000000000009</v>
+        <v>-21.73913043478277</v>
       </c>
       <c r="L566" t="n">
         <v>24.17000000000002</v>
@@ -29593,7 +29615,7 @@
         <v>80.69999999999997</v>
       </c>
       <c r="K567" t="n">
-        <v>-21.95121951219519</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L567" t="n">
         <v>24.15000000000002</v>
@@ -29644,7 +29666,7 @@
         <v>80.69999999999997</v>
       </c>
       <c r="K568" t="n">
-        <v>-25.00000000000009</v>
+        <v>-64.70588235294147</v>
       </c>
       <c r="L568" t="n">
         <v>24.12000000000003</v>
@@ -29695,7 +29717,7 @@
         <v>80.69999999999997</v>
       </c>
       <c r="K569" t="n">
-        <v>-23.07692307692309</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L569" t="n">
         <v>24.01000000000002</v>
@@ -29746,7 +29768,7 @@
         <v>80.79999999999997</v>
       </c>
       <c r="K570" t="n">
-        <v>-20.00000000000009</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L570" t="n">
         <v>23.93000000000002</v>
@@ -29797,7 +29819,7 @@
         <v>80.79999999999997</v>
       </c>
       <c r="K571" t="n">
-        <v>-13.51351351351356</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L571" t="n">
         <v>23.88000000000002</v>
@@ -29848,7 +29870,7 @@
         <v>80.89999999999998</v>
       </c>
       <c r="K572" t="n">
-        <v>-16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>23.87000000000002</v>
@@ -29899,7 +29921,7 @@
         <v>80.99999999999997</v>
       </c>
       <c r="K573" t="n">
-        <v>-14.28571428571434</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L573" t="n">
         <v>23.86000000000002</v>
@@ -29950,7 +29972,7 @@
         <v>81.09999999999997</v>
       </c>
       <c r="K574" t="n">
-        <v>-16.6666666666667</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L574" t="n">
         <v>23.84000000000002</v>
@@ -30001,7 +30023,7 @@
         <v>81.09999999999997</v>
       </c>
       <c r="K575" t="n">
-        <v>-20.00000000000014</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L575" t="n">
         <v>23.82000000000002</v>
@@ -30052,7 +30074,7 @@
         <v>81.09999999999997</v>
       </c>
       <c r="K576" t="n">
-        <v>-12.50000000000006</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>23.85000000000002</v>
@@ -30103,7 +30125,7 @@
         <v>81.09999999999997</v>
       </c>
       <c r="K577" t="n">
-        <v>-6.666666666666707</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>23.85000000000002</v>
@@ -30154,7 +30176,7 @@
         <v>81.19999999999996</v>
       </c>
       <c r="K578" t="n">
-        <v>-6.666666666666825</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L578" t="n">
         <v>23.86000000000002</v>
@@ -30205,7 +30227,7 @@
         <v>81.19999999999996</v>
       </c>
       <c r="K579" t="n">
-        <v>-45.45454545454598</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>23.87000000000002</v>
@@ -30256,7 +30278,7 @@
         <v>82.19999999999996</v>
       </c>
       <c r="K580" t="n">
-        <v>6.666666666666707</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L580" t="n">
         <v>23.97000000000001</v>
@@ -30307,7 +30329,7 @@
         <v>83.09999999999997</v>
       </c>
       <c r="K581" t="n">
-        <v>-11.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>23.98000000000001</v>
@@ -30358,7 +30380,7 @@
         <v>83.19999999999996</v>
       </c>
       <c r="K582" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>23.97000000000002</v>
@@ -30409,7 +30431,7 @@
         <v>83.19999999999996</v>
       </c>
       <c r="K583" t="n">
-        <v>-3.030303030303089</v>
+        <v>4.761904761904674</v>
       </c>
       <c r="L583" t="n">
         <v>23.97000000000001</v>
@@ -30460,7 +30482,7 @@
         <v>83.39999999999996</v>
       </c>
       <c r="K584" t="n">
-        <v>2.85714285714291</v>
+        <v>13.04347826086961</v>
       </c>
       <c r="L584" t="n">
         <v>24.00000000000001</v>
@@ -30511,7 +30533,7 @@
         <v>83.39999999999996</v>
       </c>
       <c r="K585" t="n">
-        <v>2.85714285714291</v>
+        <v>13.04347826086961</v>
       </c>
       <c r="L585" t="n">
         <v>24.03000000000001</v>
@@ -30562,7 +30584,7 @@
         <v>83.39999999999996</v>
       </c>
       <c r="K586" t="n">
-        <v>20.00000000000014</v>
+        <v>13.04347826086961</v>
       </c>
       <c r="L586" t="n">
         <v>24.06000000000001</v>
@@ -30613,7 +30635,7 @@
         <v>83.49999999999996</v>
       </c>
       <c r="K587" t="n">
-        <v>14.28571428571432</v>
+        <v>13.04347826086961</v>
       </c>
       <c r="L587" t="n">
         <v>24.10000000000001</v>
@@ -30664,7 +30686,7 @@
         <v>83.89999999999995</v>
       </c>
       <c r="K588" t="n">
-        <v>0</v>
+        <v>-3.70370370370364</v>
       </c>
       <c r="L588" t="n">
         <v>24.09000000000001</v>
@@ -30715,7 +30737,7 @@
         <v>83.99999999999994</v>
       </c>
       <c r="K589" t="n">
-        <v>3.030303030302994</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L589" t="n">
         <v>24.09000000000001</v>
@@ -30766,7 +30788,7 @@
         <v>83.99999999999994</v>
       </c>
       <c r="K590" t="n">
-        <v>0</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L590" t="n">
         <v>23.99000000000001</v>
@@ -30868,7 +30890,7 @@
         <v>84.19999999999995</v>
       </c>
       <c r="K592" t="n">
-        <v>3.030303030303102</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L592" t="n">
         <v>24.00000000000001</v>
@@ -30919,7 +30941,7 @@
         <v>84.19999999999995</v>
       </c>
       <c r="K593" t="n">
-        <v>6.250000000000139</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>24.02000000000001</v>
@@ -30970,7 +30992,7 @@
         <v>84.39999999999995</v>
       </c>
       <c r="K594" t="n">
-        <v>15.15151515151523</v>
+        <v>20.00000000000021</v>
       </c>
       <c r="L594" t="n">
         <v>24.04000000000001</v>
@@ -31021,7 +31043,7 @@
         <v>84.59999999999995</v>
       </c>
       <c r="K595" t="n">
-        <v>8.571428571428626</v>
+        <v>0</v>
       </c>
       <c r="L595" t="n">
         <v>24.04000000000001</v>
@@ -31072,7 +31094,7 @@
         <v>84.79999999999995</v>
       </c>
       <c r="K596" t="n">
-        <v>13.51351351351356</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L596" t="n">
         <v>24.06000000000001</v>
@@ -31123,7 +31145,7 @@
         <v>84.79999999999995</v>
       </c>
       <c r="K597" t="n">
-        <v>13.51351351351356</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L597" t="n">
         <v>24.07000000000001</v>
@@ -31174,7 +31196,7 @@
         <v>84.89999999999995</v>
       </c>
       <c r="K598" t="n">
-        <v>8.108108108108151</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L598" t="n">
         <v>24.11000000000001</v>
@@ -31225,7 +31247,7 @@
         <v>84.99999999999994</v>
       </c>
       <c r="K599" t="n">
-        <v>5.26315789473694</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L599" t="n">
         <v>24.13000000000001</v>
@@ -31276,7 +31298,7 @@
         <v>84.99999999999994</v>
       </c>
       <c r="K600" t="n">
-        <v>-28.57142857142864</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L600" t="n">
         <v>24.15000000000001</v>
@@ -31327,7 +31349,7 @@
         <v>84.99999999999994</v>
       </c>
       <c r="K601" t="n">
-        <v>5.26315789473698</v>
+        <v>0</v>
       </c>
       <c r="L601" t="n">
         <v>24.17000000000001</v>
@@ -31378,7 +31400,7 @@
         <v>85.19999999999995</v>
       </c>
       <c r="K602" t="n">
-        <v>20.00000000000025</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L602" t="n">
         <v>24.19</v>
@@ -31429,7 +31451,7 @@
         <v>85.39999999999995</v>
       </c>
       <c r="K603" t="n">
-        <v>27.27272727272748</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L603" t="n">
         <v>24.23000000000001</v>
@@ -31480,7 +31502,7 @@
         <v>85.69999999999995</v>
       </c>
       <c r="K604" t="n">
-        <v>30.43478260869585</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L604" t="n">
         <v>24.28000000000001</v>
@@ -31531,7 +31553,7 @@
         <v>85.69999999999995</v>
       </c>
       <c r="K605" t="n">
-        <v>30.43478260869585</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L605" t="n">
         <v>24.35000000000001</v>
@@ -31582,7 +31604,7 @@
         <v>85.99999999999994</v>
       </c>
       <c r="K606" t="n">
-        <v>15.38461538461545</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L606" t="n">
         <v>24.37000000000001</v>
@@ -31633,7 +31655,7 @@
         <v>86.09999999999994</v>
       </c>
       <c r="K607" t="n">
-        <v>15.38461538461559</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L607" t="n">
         <v>24.40000000000001</v>
@@ -31684,7 +31706,7 @@
         <v>86.19999999999993</v>
       </c>
       <c r="K608" t="n">
-        <v>30.43478260869585</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L608" t="n">
         <v>24.43000000000001</v>
@@ -31735,7 +31757,7 @@
         <v>86.19999999999993</v>
       </c>
       <c r="K609" t="n">
-        <v>27.27272727272748</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L609" t="n">
         <v>24.47000000000001</v>
@@ -31786,7 +31808,7 @@
         <v>86.69999999999993</v>
       </c>
       <c r="K610" t="n">
-        <v>40.74074074074097</v>
+        <v>52.9411764705885</v>
       </c>
       <c r="L610" t="n">
         <v>24.56000000000002</v>
@@ -31837,7 +31859,7 @@
         <v>87.29999999999993</v>
       </c>
       <c r="K611" t="n">
-        <v>15.15151515151523</v>
+        <v>4.761904761904705</v>
       </c>
       <c r="L611" t="n">
         <v>24.59000000000002</v>
@@ -31888,7 +31910,7 @@
         <v>87.39999999999992</v>
       </c>
       <c r="K612" t="n">
-        <v>6.250000000000028</v>
+        <v>-10.00000000000011</v>
       </c>
       <c r="L612" t="n">
         <v>24.59000000000001</v>
@@ -31939,7 +31961,7 @@
         <v>87.69999999999992</v>
       </c>
       <c r="K613" t="n">
-        <v>14.2857142857144</v>
+        <v>-10.00000000000011</v>
       </c>
       <c r="L613" t="n">
         <v>24.60000000000002</v>
@@ -31990,7 +32012,7 @@
         <v>87.89999999999992</v>
       </c>
       <c r="K614" t="n">
-        <v>2.857142857142819</v>
+        <v>-18.18181818181849</v>
       </c>
       <c r="L614" t="n">
         <v>24.56000000000001</v>
@@ -32041,7 +32063,7 @@
         <v>87.89999999999992</v>
       </c>
       <c r="K615" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L615" t="n">
         <v>24.52000000000001</v>
@@ -32092,7 +32114,7 @@
         <v>87.99999999999991</v>
       </c>
       <c r="K616" t="n">
-        <v>6.250000000000055</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L616" t="n">
         <v>24.52000000000001</v>
@@ -32143,7 +32165,7 @@
         <v>88.09999999999991</v>
       </c>
       <c r="K617" t="n">
-        <v>9.090909090909239</v>
+        <v>5.26315789473698</v>
       </c>
       <c r="L617" t="n">
         <v>24.52000000000001</v>
@@ -32194,7 +32216,7 @@
         <v>88.29999999999991</v>
       </c>
       <c r="K618" t="n">
-        <v>17.64705882352965</v>
+        <v>14.28571428571445</v>
       </c>
       <c r="L618" t="n">
         <v>24.55000000000001</v>
@@ -32245,7 +32267,7 @@
         <v>88.29999999999991</v>
       </c>
       <c r="K619" t="n">
-        <v>21.21212121212139</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L619" t="n">
         <v>24.58000000000001</v>
@@ -32296,7 +32318,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K620" t="n">
-        <v>25.71428571428588</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L620" t="n">
         <v>24.58000000000001</v>
@@ -32347,7 +32369,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K621" t="n">
-        <v>25.71428571428588</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L621" t="n">
         <v>24.64000000000001</v>
@@ -32398,7 +32420,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K622" t="n">
-        <v>21.21212121212139</v>
+        <v>50</v>
       </c>
       <c r="L622" t="n">
         <v>24.71000000000001</v>
@@ -32449,7 +32471,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K623" t="n">
-        <v>16.12903225806469</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L623" t="n">
         <v>24.75000000000001</v>
@@ -32500,7 +32522,7 @@
         <v>88.69999999999992</v>
       </c>
       <c r="K624" t="n">
-        <v>13.33333333333341</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L624" t="n">
         <v>24.83000000000001</v>
@@ -32551,7 +32573,7 @@
         <v>88.69999999999992</v>
       </c>
       <c r="K625" t="n">
-        <v>13.33333333333341</v>
+        <v>99.99999999999949</v>
       </c>
       <c r="L625" t="n">
         <v>24.91000000000001</v>
@@ -32602,7 +32624,7 @@
         <v>88.69999999999992</v>
       </c>
       <c r="K626" t="n">
-        <v>25.92592592592615</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L626" t="n">
         <v>24.98000000000001</v>
@@ -32653,7 +32675,7 @@
         <v>88.69999999999992</v>
       </c>
       <c r="K627" t="n">
-        <v>23.07692307692317</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L627" t="n">
         <v>25.04000000000001</v>
@@ -32704,7 +32726,7 @@
         <v>88.79999999999991</v>
       </c>
       <c r="K628" t="n">
-        <v>23.07692307692331</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L628" t="n">
         <v>25.07000000000001</v>
@@ -32755,7 +32777,7 @@
         <v>88.89999999999992</v>
       </c>
       <c r="K629" t="n">
-        <v>18.51851851851859</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>25.09000000000001</v>
@@ -32857,7 +32879,7 @@
         <v>88.89999999999992</v>
       </c>
       <c r="K631" t="n">
-        <v>37.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>25.09000000000001</v>
@@ -32908,7 +32930,7 @@
         <v>88.89999999999992</v>
       </c>
       <c r="K632" t="n">
-        <v>46.66666666666661</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>25.09000000000001</v>
@@ -32959,7 +32981,7 @@
         <v>88.89999999999992</v>
       </c>
       <c r="K633" t="n">
-        <v>33.33333333333314</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L633" t="n">
         <v>25.09000000000001</v>
@@ -33010,7 +33032,7 @@
         <v>88.99999999999991</v>
       </c>
       <c r="K634" t="n">
-        <v>45.45454545454569</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L634" t="n">
         <v>25.06000000000001</v>
@@ -33061,7 +33083,7 @@
         <v>89.09999999999991</v>
       </c>
       <c r="K635" t="n">
-        <v>33.33333333333383</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L635" t="n">
         <v>25.02000000000001</v>
@@ -33112,7 +33134,7 @@
         <v>89.09999999999991</v>
       </c>
       <c r="K636" t="n">
-        <v>27.27272727272748</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L636" t="n">
         <v>24.98000000000001</v>
@@ -33163,7 +33185,7 @@
         <v>89.1999999999999</v>
       </c>
       <c r="K637" t="n">
-        <v>27.27272727272715</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L637" t="n">
         <v>24.95000000000001</v>
@@ -33214,7 +33236,7 @@
         <v>89.39999999999991</v>
       </c>
       <c r="K638" t="n">
-        <v>27.27272727272748</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L638" t="n">
         <v>24.95000000000001</v>
@@ -33265,7 +33287,7 @@
         <v>89.49999999999991</v>
       </c>
       <c r="K639" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>24.95000000000001</v>
@@ -33316,7 +33338,7 @@
         <v>89.69999999999992</v>
       </c>
       <c r="K640" t="n">
-        <v>-16.66666666666657</v>
+        <v>-25</v>
       </c>
       <c r="L640" t="n">
         <v>24.93000000000001</v>
@@ -33367,7 +33389,7 @@
         <v>89.89999999999992</v>
       </c>
       <c r="K641" t="n">
-        <v>-28.57142857142835</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L641" t="n">
         <v>24.89000000000001</v>
@@ -33418,7 +33440,7 @@
         <v>89.99999999999991</v>
       </c>
       <c r="K642" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L642" t="n">
         <v>24.84000000000001</v>
@@ -33469,7 +33491,7 @@
         <v>90.19999999999992</v>
       </c>
       <c r="K643" t="n">
-        <v>-17.64705882352942</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L643" t="n">
         <v>24.81000000000001</v>
@@ -33520,7 +33542,7 @@
         <v>90.19999999999992</v>
       </c>
       <c r="K644" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L644" t="n">
         <v>24.79000000000001</v>
@@ -33571,7 +33593,7 @@
         <v>90.19999999999992</v>
       </c>
       <c r="K645" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L645" t="n">
         <v>24.78000000000001</v>
@@ -33622,7 +33644,7 @@
         <v>90.39999999999992</v>
       </c>
       <c r="K646" t="n">
-        <v>-41.17647058823518</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L646" t="n">
         <v>24.75000000000001</v>
@@ -33673,7 +33695,7 @@
         <v>90.59999999999992</v>
       </c>
       <c r="K647" t="n">
-        <v>-47.36842105263136</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L647" t="n">
         <v>24.69000000000001</v>
@@ -33724,7 +33746,7 @@
         <v>90.89999999999992</v>
       </c>
       <c r="K648" t="n">
-        <v>-52.38095238095224</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L648" t="n">
         <v>24.58000000000001</v>
@@ -33826,7 +33848,7 @@
         <v>91.39999999999992</v>
       </c>
       <c r="K650" t="n">
-        <v>-20</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L650" t="n">
         <v>24.49000000000001</v>
@@ -33877,7 +33899,7 @@
         <v>91.39999999999992</v>
       </c>
       <c r="K651" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L651" t="n">
         <v>24.48000000000001</v>
@@ -33928,7 +33950,7 @@
         <v>91.39999999999992</v>
       </c>
       <c r="K652" t="n">
-        <v>-20</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L652" t="n">
         <v>24.48000000000001</v>
@@ -34030,7 +34052,7 @@
         <v>91.69999999999992</v>
       </c>
       <c r="K654" t="n">
-        <v>-25.92592592592587</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L654" t="n">
         <v>24.40000000000001</v>
@@ -34081,7 +34103,7 @@
         <v>91.69999999999992</v>
       </c>
       <c r="K655" t="n">
-        <v>-23.07692307692306</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L655" t="n">
         <v>24.35</v>
@@ -34132,7 +34154,7 @@
         <v>91.69999999999992</v>
       </c>
       <c r="K656" t="n">
-        <v>-23.07692307692306</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L656" t="n">
         <v>24.32</v>
@@ -34183,7 +34205,7 @@
         <v>91.89999999999992</v>
       </c>
       <c r="K657" t="n">
-        <v>-18.5185185185184</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L657" t="n">
         <v>24.33</v>
@@ -34234,7 +34256,7 @@
         <v>91.89999999999992</v>
       </c>
       <c r="K658" t="n">
-        <v>-27.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>24.37</v>
@@ -34285,7 +34307,7 @@
         <v>91.99999999999991</v>
       </c>
       <c r="K659" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>24.38</v>
@@ -34336,7 +34358,7 @@
         <v>92.29999999999991</v>
       </c>
       <c r="K660" t="n">
-        <v>-23.07692307692318</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L660" t="n">
         <v>24.35</v>
@@ -34387,7 +34409,7 @@
         <v>92.29999999999991</v>
       </c>
       <c r="K661" t="n">
-        <v>-16.66666666666682</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L661" t="n">
         <v>24.32</v>
@@ -34438,7 +34460,7 @@
         <v>92.49999999999991</v>
       </c>
       <c r="K662" t="n">
-        <v>-4.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>24.31</v>
@@ -34489,7 +34511,7 @@
         <v>92.49999999999991</v>
       </c>
       <c r="K663" t="n">
-        <v>-13.04347826086961</v>
+        <v>25</v>
       </c>
       <c r="L663" t="n">
         <v>24.31</v>
@@ -34540,7 +34562,7 @@
         <v>92.59999999999991</v>
       </c>
       <c r="K664" t="n">
-        <v>-16.66666666666666</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L664" t="n">
         <v>24.31999999999999</v>
@@ -34591,7 +34613,7 @@
         <v>92.79999999999991</v>
       </c>
       <c r="K665" t="n">
-        <v>-7.692307692307682</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L665" t="n">
         <v>24.34999999999999</v>
@@ -34642,7 +34664,7 @@
         <v>92.79999999999991</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L666" t="n">
         <v>24.38</v>
@@ -34693,7 +34715,7 @@
         <v>92.79999999999991</v>
       </c>
       <c r="K667" t="n">
-        <v>9.090909090909104</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L667" t="n">
         <v>24.38999999999999</v>
@@ -34744,7 +34766,7 @@
         <v>92.99999999999991</v>
       </c>
       <c r="K668" t="n">
-        <v>14.28571428571436</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L668" t="n">
         <v>24.37999999999999</v>
@@ -34795,7 +34817,7 @@
         <v>92.99999999999991</v>
       </c>
       <c r="K669" t="n">
-        <v>-5.882352941176385</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L669" t="n">
         <v>24.35999999999999</v>
@@ -34846,7 +34868,7 @@
         <v>93.09999999999991</v>
       </c>
       <c r="K670" t="n">
-        <v>-5.882352941176594</v>
+        <v>25</v>
       </c>
       <c r="L670" t="n">
         <v>24.37999999999999</v>
@@ -34897,7 +34919,7 @@
         <v>93.1999999999999</v>
       </c>
       <c r="K671" t="n">
-        <v>-11.11111111111118</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L671" t="n">
         <v>24.38999999999999</v>
@@ -34948,7 +34970,7 @@
         <v>93.2999999999999</v>
       </c>
       <c r="K672" t="n">
-        <v>-5.26315789473698</v>
+        <v>0</v>
       </c>
       <c r="L672" t="n">
         <v>24.38999999999999</v>
@@ -34999,7 +35021,7 @@
         <v>93.2999999999999</v>
       </c>
       <c r="K673" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L673" t="n">
         <v>24.38999999999999</v>
@@ -35050,7 +35072,7 @@
         <v>93.39999999999989</v>
       </c>
       <c r="K674" t="n">
-        <v>5.882352941176642</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L674" t="n">
         <v>24.38999999999999</v>
@@ -35101,7 +35123,7 @@
         <v>93.49999999999989</v>
       </c>
       <c r="K675" t="n">
-        <v>11.11111111111127</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L675" t="n">
         <v>24.37999999999998</v>
@@ -35152,7 +35174,7 @@
         <v>93.79999999999988</v>
       </c>
       <c r="K676" t="n">
-        <v>23.8095238095242</v>
+        <v>20.0000000000005</v>
       </c>
       <c r="L676" t="n">
         <v>24.39999999999998</v>
@@ -35203,7 +35225,7 @@
         <v>93.79999999999988</v>
       </c>
       <c r="K677" t="n">
-        <v>15.78947368421087</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L677" t="n">
         <v>24.41999999999998</v>

--- a/BackTest/2019-11-02 BackTest LBA.xlsx
+++ b/BackTest/2019-11-02 BackTest LBA.xlsx
@@ -4931,14 +4931,20 @@
         <v>24.12666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>23</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4972,20 @@
         <v>24.11166666666666</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,14 +5013,20 @@
         <v>24.09</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5054,20 @@
         <v>24.075</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5095,20 @@
         <v>24.06333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +5136,20 @@
         <v>24.05166666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5184,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5223,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5262,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5301,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5340,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5379,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5418,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5457,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5496,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5535,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5574,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5613,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5652,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5691,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5730,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5769,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5808,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5847,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5886,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5925,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5964,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6003,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6042,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6081,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6120,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6159,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6198,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6237,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6276,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6315,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6354,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6393,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6432,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6471,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6510,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6549,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6588,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6627,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6666,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6705,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6744,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6783,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6822,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6861,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6900,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6939,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6978,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7017,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7056,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7095,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7134,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7173,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7212,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7251,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7031,18 +7283,18 @@
         <v>23.68666666666665</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K190" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7070,20 +7322,16 @@
         <v>23.68999999999998</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K191" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -7113,20 +7361,16 @@
         <v>23.69166666666665</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K192" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -7156,18 +7400,18 @@
         <v>23.69333333333331</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K193" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7195,20 +7439,16 @@
         <v>23.69166666666665</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K194" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -7238,20 +7478,16 @@
         <v>23.68333333333332</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K195" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -7281,20 +7517,16 @@
         <v>23.67666666666664</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K196" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -7324,17 +7556,13 @@
         <v>23.65999999999998</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K197" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,17 +7595,13 @@
         <v>23.65499999999998</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K198" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,17 +7634,13 @@
         <v>23.63833333333331</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K199" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,17 +7673,13 @@
         <v>23.62166666666665</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K200" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,17 +7712,13 @@
         <v>23.60333333333331</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K201" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,17 +7751,13 @@
         <v>23.59166666666664</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K202" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,17 +7790,13 @@
         <v>23.57999999999998</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K203" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,17 +7829,13 @@
         <v>23.56833333333331</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K204" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,17 +7868,13 @@
         <v>23.55666666666664</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K205" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7711,17 +7907,13 @@
         <v>23.54499999999997</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K206" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,17 +7946,13 @@
         <v>23.53166666666664</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K207" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,17 +7985,13 @@
         <v>23.52166666666664</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K208" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,17 +8024,13 @@
         <v>23.50666666666664</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K209" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,17 +8063,13 @@
         <v>23.50333333333331</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K210" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7926,17 +8102,13 @@
         <v>23.49999999999998</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K211" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,17 +8141,13 @@
         <v>23.50166666666664</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K212" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,9 +8186,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8059,9 +8225,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,9 +8264,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,9 +8303,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,17 +8336,13 @@
         <v>23.49499999999997</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K217" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,17 +8375,13 @@
         <v>23.49666666666663</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K218" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,17 +8414,13 @@
         <v>23.49166666666664</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K219" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,17 +8453,13 @@
         <v>23.49499999999997</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K220" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,17 +8492,13 @@
         <v>23.49166666666664</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K221" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8397,9 +8537,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,9 +8576,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,17 +8609,13 @@
         <v>23.46499999999997</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K224" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,17 +8648,13 @@
         <v>23.45833333333331</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K225" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8559,17 +8687,13 @@
         <v>23.45499999999998</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K226" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8602,17 +8726,13 @@
         <v>23.45833333333331</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K227" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8645,17 +8765,13 @@
         <v>23.44999999999997</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K228" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,17 +8804,13 @@
         <v>23.44499999999998</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K229" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,17 +8843,13 @@
         <v>23.43666666666664</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K230" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8774,17 +8882,13 @@
         <v>23.43499999999998</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K231" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,17 +8921,13 @@
         <v>23.43333333333331</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K232" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,17 +8960,13 @@
         <v>23.43666666666664</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K233" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,17 +8999,13 @@
         <v>23.43833333333331</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K234" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8946,17 +9038,13 @@
         <v>23.43999999999997</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K235" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,17 +9077,13 @@
         <v>23.43999999999997</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K236" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,17 +9116,13 @@
         <v>23.43999999999997</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K237" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,9 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9122,9 +9200,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,9 +9239,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,9 +9278,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,9 +9317,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,9 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9327,9 +9395,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9368,9 +9434,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9409,9 +9473,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,9 +9512,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9491,9 +9551,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9532,9 +9590,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,9 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9614,9 +9668,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9655,9 +9707,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,9 +9746,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,9 +9785,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9778,9 +9824,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,9 +9863,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9860,9 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,9 +9941,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,9 +9980,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,9 +10019,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,9 +10058,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10065,9 +10097,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,9 +10136,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,9 +10175,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10188,9 +10214,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,9 +10253,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,9 +10292,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,9 +10331,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10352,9 +10370,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,9 +10409,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10434,9 +10448,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10475,9 +10487,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,9 +10526,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10557,9 +10565,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10598,9 +10604,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10639,9 +10643,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,9 +10682,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,9 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10762,9 +10760,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,9 +10799,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,9 +10838,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,9 +10877,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10926,9 +10916,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,9 +10955,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11008,9 +10994,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,9 +11033,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,9 +11072,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11131,9 +11111,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,9 +11150,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11213,9 +11189,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,9 +11228,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11295,9 +11267,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,9 +11306,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,9 +11345,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11418,9 +11384,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11459,9 +11423,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11500,9 +11462,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11541,9 +11501,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11582,9 +11540,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,9 +11579,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11618,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,9 +11657,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +11696,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11787,9 +11735,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11828,9 +11774,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11869,9 +11813,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,9 +11852,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,9 +11891,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11992,9 +11930,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12033,9 +11969,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12074,9 +12008,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12115,9 +12047,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12156,9 +12086,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,9 +12125,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,9 +12164,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,9 +12203,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,9 +12242,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12361,9 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12402,9 +12320,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12443,9 +12359,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12484,9 +12398,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12525,9 +12437,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12566,9 +12476,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,9 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12648,9 +12554,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12689,9 +12593,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12730,9 +12632,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12771,9 +12671,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12812,9 +12710,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12853,9 +12749,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12894,9 +12788,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,9 +12827,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12976,9 +12866,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13017,9 +12905,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,9 +12944,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13099,9 +12983,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13140,9 +13022,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13181,9 +13061,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,9 +13100,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,9 +13139,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13304,9 +13178,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,9 +13217,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13386,9 +13256,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13427,9 +13295,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13468,9 +13334,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13509,9 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13550,9 +13412,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,9 +13451,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13632,9 +13490,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13673,9 +13529,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13714,9 +13568,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13755,9 +13607,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13796,9 +13646,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13837,9 +13685,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +13724,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13919,9 +13763,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,9 +13802,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14001,9 +13841,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14042,9 +13880,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14083,9 +13919,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14124,9 +13958,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14165,9 +13997,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14206,9 +14036,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14247,9 +14075,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14288,9 +14114,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14329,9 +14153,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,9 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14411,9 +14231,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14452,9 +14270,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,9 +14309,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,9 +14348,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,9 +14387,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,20 +14423,16 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14657,14 +14463,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +14498,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14736,17 +14530,11 @@
         <v>0</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14777,17 +14565,11 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14821,14 +14603,8 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14862,14 +14638,8 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14903,14 +14673,8 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14944,14 +14708,8 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14985,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15026,14 +14778,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15067,14 +14813,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15108,14 +14848,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15149,14 +14883,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15190,14 +14918,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15231,14 +14953,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15272,14 +14988,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15313,14 +15023,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +15058,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15395,14 +15093,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15436,14 +15128,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15477,14 +15163,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15518,14 +15198,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15559,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +15268,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15641,14 +15303,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15682,14 +15338,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15723,14 +15373,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15764,14 +15408,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15805,14 +15443,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15846,14 +15478,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15887,14 +15513,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15928,14 +15548,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15969,14 +15583,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16010,14 +15618,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16051,14 +15653,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16092,14 +15688,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16133,14 +15723,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16174,14 +15758,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16215,14 +15793,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16256,14 +15828,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16297,14 +15863,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16338,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16379,14 +15933,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16420,14 +15968,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16461,14 +16003,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16502,14 +16038,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16543,14 +16073,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16584,14 +16108,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16625,14 +16143,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16666,14 +16178,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16707,14 +16213,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16748,14 +16248,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16789,14 +16283,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16830,14 +16318,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16871,14 +16353,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16912,14 +16388,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16953,14 +16423,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16994,14 +16458,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17035,14 +16493,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17076,14 +16528,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17117,14 +16563,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17158,14 +16598,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17199,14 +16633,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17240,14 +16668,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17281,14 +16703,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +16738,8 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17363,14 +16773,8 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17404,14 +16808,8 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17445,14 +16843,8 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17486,14 +16878,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17527,14 +16913,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17568,14 +16948,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17609,14 +16983,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17650,14 +17018,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17691,14 +17053,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17732,14 +17088,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17773,14 +17123,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17814,14 +17158,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17855,14 +17193,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17896,14 +17228,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17937,14 +17263,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17978,14 +17298,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18019,14 +17333,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18060,14 +17368,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18101,14 +17403,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18142,14 +17438,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18183,14 +17473,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18224,14 +17508,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18265,14 +17543,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18306,14 +17578,8 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18347,14 +17613,8 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18388,14 +17648,8 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18429,14 +17683,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18470,14 +17718,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18511,14 +17753,8 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18552,14 +17788,8 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18593,14 +17823,8 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18634,14 +17858,8 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18675,14 +17893,8 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18716,14 +17928,8 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18757,14 +17963,8 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18798,14 +17998,8 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18839,14 +18033,8 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18880,14 +18068,8 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18921,14 +18103,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18962,14 +18138,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -19003,14 +18173,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19044,14 +18208,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19085,14 +18243,8 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -19126,14 +18278,8 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -19167,14 +18313,8 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -19208,14 +18348,8 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19249,14 +18383,8 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19290,14 +18418,8 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19331,14 +18453,8 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19372,14 +18488,8 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19413,14 +18523,8 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19454,14 +18558,8 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19495,14 +18593,8 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19536,14 +18628,8 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19577,14 +18663,8 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19618,14 +18698,8 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19659,14 +18733,8 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19700,14 +18768,8 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19741,14 +18803,8 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19782,14 +18838,8 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19823,14 +18873,8 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19864,14 +18908,8 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19905,14 +18943,8 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19946,14 +18978,8 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19987,14 +19013,8 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -20028,14 +19048,8 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -20069,14 +19083,8 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -20110,14 +19118,8 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20151,14 +19153,8 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20192,14 +19188,8 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20233,14 +19223,8 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20274,14 +19258,8 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20315,14 +19293,8 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -20356,14 +19328,8 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -20397,14 +19363,8 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -20438,14 +19398,8 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20479,14 +19433,8 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20520,14 +19468,8 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20561,14 +19503,8 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20602,14 +19538,8 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20643,14 +19573,8 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20684,14 +19608,8 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20725,14 +19643,8 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20766,14 +19678,8 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20807,14 +19713,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20848,14 +19748,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20889,14 +19783,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20930,14 +19818,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20971,14 +19853,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -21012,14 +19888,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -21053,14 +19923,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -21094,14 +19958,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -21135,14 +19993,8 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -21176,14 +20028,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -21217,14 +20063,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -21258,14 +20098,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -21299,14 +20133,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -21340,16 +20168,10 @@
         <v>1</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
-        <v>1.067961373390558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -21378,7 +20200,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest LBA.xlsx
+++ b/BackTest/2019-11-02 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,11 +1111,17 @@
         <v>-686086.8126263666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1150,17 @@
         <v>-735867.3427263666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1189,17 @@
         <v>-483315.7910263666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1228,17 @@
         <v>-517071.0652263666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1267,17 @@
         <v>-492980.0293263666</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1306,17 @@
         <v>-522862.7872263666</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1345,17 @@
         <v>-522862.7872263666</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1384,17 @@
         <v>-522862.7872263666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1423,17 @@
         <v>-522862.7872263666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1462,17 @@
         <v>-418186.0659263666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1501,17 @@
         <v>-232377.5532010501</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1540,17 @@
         <v>-234023.2407010501</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1579,17 @@
         <v>-386657.0152010501</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1618,17 @@
         <v>-262428.7749010501</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1657,17 @@
         <v>-258814.9508010501</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1696,17 @@
         <v>-258814.9508010501</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1735,17 @@
         <v>-258814.9508010501</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1774,17 @@
         <v>-386849.3977010501</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1813,17 @@
         <v>-475910.5496010501</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1852,17 @@
         <v>-475877.5496010501</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1891,17 @@
         <v>-477380.7861010501</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1930,17 @@
         <v>-610485.4028010501</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1969,17 @@
         <v>-377050.1645010501</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2008,17 @@
         <v>-376230.1645010501</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2047,17 @@
         <v>-376246.7176010502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2086,17 @@
         <v>-376299.7176010502</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2125,17 @@
         <v>-288708.0658010502</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2164,17 @@
         <v>-223631.5253010502</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2203,17 @@
         <v>-203938.2633010502</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2242,17 @@
         <v>-203938.2633010502</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2281,17 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2320,17 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2363,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2400,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2437,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2474,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2511,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2548,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2585,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2622,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2659,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2696,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2733,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2770,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2807,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2844,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2881,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2918,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2955,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2992,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3029,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3066,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3103,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3140,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3177,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3214,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3251,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3288,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3325,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3362,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3399,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3436,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3473,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3510,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3547,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3584,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3621,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3658,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3695,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3732,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3769,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3806,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3843,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3880,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3917,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3954,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3991,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4028,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4065,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4102,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4139,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4176,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4209,15 @@
         <v>532196.7167783853</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4246,15 @@
         <v>634975.4018783853</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4283,15 @@
         <v>645009.5124783854</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4324,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4357,15 @@
         <v>683171.1988783854</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4394,15 @@
         <v>935402.0623783853</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4431,15 @@
         <v>842878.8598783853</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4468,15 @@
         <v>778326.9852783853</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4505,15 @@
         <v>778326.9852783853</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4542,15 @@
         <v>779975.6807783854</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4583,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4620,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4657,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4694,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4731,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4768,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4805,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4842,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4879,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4916,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4953,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4990,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5027,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5064,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5101,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5138,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5175,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5212,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5249,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5286,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5323,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5360,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5397,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5434,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5471,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5508,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5545,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5582,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5619,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5656,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5693,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5730,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5767,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5804,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5841,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5878,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5915,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5952,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5989,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6026,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6063,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6100,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6137,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6174,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6211,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6248,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6285,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6322,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6359,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6396,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6433,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6470,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6507,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6544,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6581,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6618,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6655,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6692,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6729,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6766,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6803,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6840,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6877,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6914,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6951,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6988,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7025,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7062,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7099,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7136,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7169,17 @@
         <v>411085.653345052</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7208,17 @@
         <v>411085.653345052</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7247,17 @@
         <v>392990.4762450519</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7286,17 @@
         <v>321133.523145052</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7325,17 @@
         <v>261676.1049450519</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7364,17 @@
         <v>283660.770445052</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>23</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7403,17 @@
         <v>280788.4500450519</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7442,17 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7481,17 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,15 +7520,17 @@
         <v>302864.0856450519</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>23.2</v>
       </c>
-      <c r="J193" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,17 +7559,15 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>23.3</v>
       </c>
-      <c r="J194" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6832,12 +7598,12 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6871,12 +7637,12 @@
         <v>479202.5358277523</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,12 +7676,12 @@
         <v>362752.3835277523</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,9 +7718,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,9 +7755,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7030,9 +7792,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7069,9 +7829,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,9 +7866,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,9 +7903,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,9 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7225,9 +7977,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,9 +8014,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7303,9 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7342,9 +8088,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7381,9 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,9 +8162,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7459,9 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,9 +8236,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,9 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,9 +8310,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,9 +8347,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,9 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7690,12 +8418,12 @@
         <v>422466.6925277523</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,12 +8457,12 @@
         <v>426684.0288563237</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,9 +8499,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7810,9 +8536,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,12 +8570,12 @@
         <v>397683.0864563237</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,12 +8609,12 @@
         <v>485889.6174450737</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,9 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,9 +8688,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8005,9 +8725,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,9 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,9 +8799,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8122,9 +8836,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,9 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8200,9 +8910,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8236,12 +8944,12 @@
         <v>444266.5015450738</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,12 +8983,12 @@
         <v>431499.2866450737</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,12 +9022,12 @@
         <v>458287.4993450737</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,12 +9061,12 @@
         <v>458287.4993450737</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8392,12 +9100,12 @@
         <v>571068.0546450737</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,12 +9139,12 @@
         <v>571068.0546450737</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,12 +9178,12 @@
         <v>554802.0804450737</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,12 +9217,12 @@
         <v>554812.0804450737</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,12 +9256,12 @@
         <v>522787.5123450737</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,12 +9295,12 @@
         <v>522797.5123450737</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,12 +9334,12 @@
         <v>521301.7536450737</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,9 +9376,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,9 +9413,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,9 +9450,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,9 +9487,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,9 +9524,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,9 +9561,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,12 +9595,12 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,12 +9634,12 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,12 +9673,12 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,12 +9712,12 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,12 +9751,12 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,12 +9790,12 @@
         <v>409009.0167450737</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,12 +9829,12 @@
         <v>409009.0167450737</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
         <v>23.2</v>
       </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,12 +9868,12 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
         <v>23.2</v>
       </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,14 +9907,12 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>23.3</v>
       </c>
-      <c r="J256" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9252,12 +9946,12 @@
         <v>408485.8927450737</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,12 +9985,12 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>23.2</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,12 +10024,12 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,14 +10063,12 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>23.1</v>
       </c>
-      <c r="J260" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,14 +10102,12 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>23.1</v>
       </c>
-      <c r="J261" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9451,14 +10141,12 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>23.5</v>
       </c>
-      <c r="J262" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,14 +10180,12 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>23.5</v>
       </c>
-      <c r="J263" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,14 +10219,12 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>23.6</v>
       </c>
-      <c r="J264" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,14 +10258,12 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>23.6</v>
       </c>
-      <c r="J265" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9615,14 +10297,12 @@
         <v>320380.8484450737</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>23.6</v>
       </c>
-      <c r="J266" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9656,12 +10336,12 @@
         <v>321064.7234450737</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9695,12 +10375,12 @@
         <v>320786.2175450737</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9734,12 +10414,12 @@
         <v>321919.7325450737</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,12 +10453,12 @@
         <v>331806.7364450737</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,12 +10492,12 @@
         <v>347912.5764450738</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9851,12 +10531,12 @@
         <v>315571.9673450738</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,12 +10570,12 @@
         <v>302095.7168450737</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,12 +10609,12 @@
         <v>322762.7168450737</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9968,12 +10648,12 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,12 +10687,12 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,12 +10726,12 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,12 +10765,12 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,12 +10804,12 @@
         <v>310130.1953450737</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,12 +10843,12 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10202,12 +10882,12 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
         <v>23.2</v>
       </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10241,12 +10921,12 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
         <v>23.2</v>
       </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10280,12 +10960,12 @@
         <v>213197.2219145652</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
         <v>23.2</v>
       </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10319,12 +10999,12 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10358,12 +11038,12 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10397,12 +11077,12 @@
         <v>267637.7448145652</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10436,12 +11116,12 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10475,12 +11155,12 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10514,12 +11194,12 @@
         <v>65024.67871456518</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10553,12 +11233,12 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10592,12 +11272,12 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10631,12 +11311,12 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10670,12 +11350,12 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,12 +11389,12 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10748,12 +11428,12 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10787,12 +11467,12 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10826,12 +11506,12 @@
         <v>199709.2280145652</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10865,12 +11545,12 @@
         <v>199709.2280145652</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10904,12 +11584,12 @@
         <v>249348.0498258152</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10943,12 +11623,12 @@
         <v>218523.3596258152</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>24</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10982,12 +11662,12 @@
         <v>223789.2273258152</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11021,12 +11701,12 @@
         <v>214360.9286258152</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,12 +11740,12 @@
         <v>214360.9286258152</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11099,12 +11779,12 @@
         <v>204241.6091258152</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11138,12 +11818,12 @@
         <v>359461.6091258152</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>24</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11177,12 +11857,12 @@
         <v>560307.1613258153</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,9 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11255,12 +11933,12 @@
         <v>659135.1842258152</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>23.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11297,9 +11975,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,9 +12012,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,9 +12049,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11414,9 +12086,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,9 +12123,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,9 +12160,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,9 +12197,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,9 +12234,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,9 +12271,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,9 +12308,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,9 +12345,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,9 +12382,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11765,9 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,9 +12456,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,9 +12493,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,9 +12530,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,9 +12567,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,9 +12604,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,9 +12641,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,9 +12678,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,9 +12715,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,9 +12752,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12155,9 +12789,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,9 +12826,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,9 +12863,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12272,9 +12900,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,9 +12937,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,9 +12974,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12389,9 +13011,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,9 +13048,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,9 +13085,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12506,9 +13122,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12545,9 +13159,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12584,9 +13196,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12623,9 +13233,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12662,9 +13270,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12701,9 +13307,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12740,9 +13344,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,9 +13381,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,9 +13418,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,9 +13455,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12896,9 +13492,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,9 +13529,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12974,9 +13566,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13013,9 +13603,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13052,9 +13640,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,9 +13677,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,9 +13714,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,9 +13751,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13208,9 +13788,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13247,9 +13825,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13286,9 +13862,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13325,9 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13364,9 +13936,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13403,9 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13442,9 +14010,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13481,9 +14047,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13520,9 +14084,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,9 +14121,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13598,9 +14158,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,9 +14195,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13676,9 +14232,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13715,9 +14269,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,9 +14306,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,9 +14343,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13832,9 +14380,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13871,9 +14417,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13910,9 +14454,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13949,9 +14491,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13988,9 +14528,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14027,9 +14565,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14066,9 +14602,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14105,9 +14639,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14144,9 +14676,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14183,9 +14713,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14222,9 +14750,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14261,9 +14787,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14300,9 +14824,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,9 +14861,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14378,9 +14898,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14417,9 +14935,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14456,9 +14972,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14495,9 +15009,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,9 +15046,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14573,9 +15083,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14612,9 +15120,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14651,9 +15157,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14690,9 +15194,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14729,9 +15231,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14768,9 +15268,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14807,9 +15305,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14846,9 +15342,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,9 +15379,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14924,9 +15416,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14963,9 +15453,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15002,9 +15490,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15041,9 +15527,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15080,9 +15564,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15119,9 +15601,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15158,9 +15638,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15197,9 +15675,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15236,9 +15712,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15275,9 +15749,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,9 +15786,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15353,9 +15823,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15392,9 +15860,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15431,9 +15897,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15470,9 +15934,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15509,9 +15971,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15548,9 +16008,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,9 +16045,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15626,9 +16082,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15665,9 +16119,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15704,9 +16156,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15743,9 +16193,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15782,9 +16230,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15821,9 +16267,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15860,9 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15899,9 +16341,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15938,9 +16378,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15977,9 +16415,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16016,9 +16452,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16055,9 +16489,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16094,9 +16526,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16133,9 +16563,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16172,9 +16600,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16208,12 +16634,10 @@
         <v>3892857.956464743</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16247,12 +16671,10 @@
         <v>3144974.512264743</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16286,12 +16708,10 @@
         <v>3212822.037264743</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16328,9 +16748,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16364,12 +16782,10 @@
         <v>2466123.670664744</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16403,12 +16819,10 @@
         <v>2682788.389164743</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,12 +16856,10 @@
         <v>2682788.389164743</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16484,9 +16896,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16523,9 +16933,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16562,9 +16970,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16601,9 +17007,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16640,9 +17044,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,9 +17081,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16718,9 +17118,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16757,9 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16796,9 +17192,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16835,9 +17229,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16874,9 +17266,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16913,9 +17303,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16952,9 +17340,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16991,9 +17377,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17030,9 +17414,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17069,9 +17451,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17108,9 +17488,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17147,9 +17525,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17186,9 +17562,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17225,9 +17599,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17264,9 +17636,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17303,9 +17673,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17342,9 +17710,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17381,9 +17747,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17420,9 +17784,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17459,9 +17821,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17498,9 +17858,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17537,9 +17895,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17576,9 +17932,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17615,9 +17969,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17654,9 +18006,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17693,9 +18043,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17732,9 +18080,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17768,20 +18114,16 @@
         <v>2836847.34323953</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -17807,17 +18149,11 @@
         <v>2916810.810839531</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17846,17 +18182,11 @@
         <v>3025656.721939531</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17885,17 +18215,11 @@
         <v>2918335.349339531</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17924,23 +18248,15 @@
         <v>2883160.826039531</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
-        <v>1.089827586206897</v>
-      </c>
-      <c r="M479" t="n">
-        <v>1.11304347826087</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -17965,7 +18281,7 @@
         <v>2861624.625184629</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17998,7 +18314,7 @@
         <v>2877716.626385022</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18031,7 +18347,7 @@
         <v>2838743.681111007</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18064,7 +18380,7 @@
         <v>2942164.352611007</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18097,7 +18413,7 @@
         <v>3219283.532911007</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18130,7 +18446,7 @@
         <v>3253394.641011007</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18163,7 +18479,7 @@
         <v>3353860.233111007</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18196,7 +18512,7 @@
         <v>3554036.292800976</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18229,7 +18545,7 @@
         <v>3321861.166500976</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18262,7 +18578,7 @@
         <v>3259220.999800976</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18295,7 +18611,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18328,7 +18644,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18361,7 +18677,7 @@
         <v>3331953.867900976</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18394,7 +18710,7 @@
         <v>3330953.867900976</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18427,7 +18743,7 @@
         <v>3287172.954500976</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18460,7 +18776,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18493,7 +18809,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18526,7 +18842,7 @@
         <v>3228356.106200976</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18559,7 +18875,7 @@
         <v>3256700.264900976</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18592,7 +18908,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18625,7 +18941,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18658,7 +18974,7 @@
         <v>2966461.963000976</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18691,7 +19007,7 @@
         <v>2908556.586600976</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18724,7 +19040,7 @@
         <v>2630778.985100976</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18757,7 +19073,7 @@
         <v>2516932.718700976</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18790,7 +19106,7 @@
         <v>2435452.333800976</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18823,7 +19139,7 @@
         <v>2437397.969800976</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18856,7 +19172,7 @@
         <v>2557916.341600976</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18889,7 +19205,7 @@
         <v>2550416.341600976</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18922,7 +19238,7 @@
         <v>2760049.045800976</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18955,7 +19271,7 @@
         <v>2760049.045800976</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18988,7 +19304,7 @@
         <v>2709369.437300976</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19021,7 +19337,7 @@
         <v>2652055.188200976</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19054,7 +19370,7 @@
         <v>2656372.052900976</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19087,7 +19403,7 @@
         <v>2667719.808800976</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19120,7 +19436,7 @@
         <v>2689690.146200976</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19153,7 +19469,7 @@
         <v>2686134.510400976</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19186,7 +19502,7 @@
         <v>2173098.038800976</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19219,7 +19535,7 @@
         <v>2019320.680800976</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19252,7 +19568,7 @@
         <v>1830318.462200976</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19285,7 +19601,7 @@
         <v>1775552.875600976</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19318,7 +19634,7 @@
         <v>1883625.649800976</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19351,7 +19667,7 @@
         <v>1853240.422400976</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19384,7 +19700,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19417,7 +19733,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19450,7 +19766,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19483,7 +19799,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19516,7 +19832,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19549,7 +19865,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19582,7 +19898,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19615,7 +19931,7 @@
         <v>2093321.230700976</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19648,7 +19964,7 @@
         <v>2090929.652200976</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19681,7 +19997,7 @@
         <v>2090929.652200976</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19813,7 +20129,7 @@
         <v>2237860.586934309</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19846,7 +20162,7 @@
         <v>2237860.586934309</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19879,7 +20195,7 @@
         <v>2224535.07673431</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20044,7 +20360,7 @@
         <v>2179466.109334309</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20077,7 +20393,7 @@
         <v>2199708.109334309</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21826,7 +22142,7 @@
         <v>2523272.77043431</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21859,7 +22175,7 @@
         <v>2523272.77043431</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21892,7 +22208,7 @@
         <v>2473126.07373431</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22783,7 +23099,7 @@
         <v>2136474.132634309</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24136,7 +24452,7 @@
         <v>2109569.778634309</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24169,7 +24485,7 @@
         <v>2109569.778634309</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26061,6 +26377,6 @@
       <c r="M725" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest LBA.xlsx
+++ b/BackTest/2019-11-02 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,17 +1111,11 @@
         <v>-686086.8126263666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1152,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1540,11 +1534,9 @@
         <v>-234023.2407010501</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1579,11 +1571,9 @@
         <v>-386657.0152010501</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2047,11 +2037,9 @@
         <v>-376246.7176010502</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2281,11 +2269,9 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2320,11 +2306,9 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -7169,11 +7153,9 @@
         <v>411085.653345052</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7208,11 +7190,9 @@
         <v>411085.653345052</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7247,11 +7227,9 @@
         <v>392990.4762450519</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7286,11 +7264,9 @@
         <v>321133.523145052</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7325,11 +7301,9 @@
         <v>261676.1049450519</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7364,11 +7338,9 @@
         <v>283660.770445052</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7403,11 +7375,9 @@
         <v>280788.4500450519</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7520,11 +7490,9 @@
         <v>302864.0856450519</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7559,11 +7527,9 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7598,11 +7564,9 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7637,11 +7601,9 @@
         <v>479202.5358277523</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7676,11 +7638,9 @@
         <v>362752.3835277523</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -8418,11 +8378,9 @@
         <v>422466.6925277523</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8457,11 +8415,9 @@
         <v>426684.0288563237</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8570,11 +8526,9 @@
         <v>397683.0864563237</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8609,11 +8563,9 @@
         <v>485889.6174450737</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8944,11 +8896,9 @@
         <v>444266.5015450738</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8983,11 +8933,9 @@
         <v>431499.2866450737</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9022,11 +8970,9 @@
         <v>458287.4993450737</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9061,11 +9007,9 @@
         <v>458287.4993450737</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9100,11 +9044,9 @@
         <v>571068.0546450737</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9139,11 +9081,9 @@
         <v>571068.0546450737</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9178,11 +9118,9 @@
         <v>554802.0804450737</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9217,11 +9155,9 @@
         <v>554812.0804450737</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9256,11 +9192,9 @@
         <v>522787.5123450737</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9295,11 +9229,9 @@
         <v>522797.5123450737</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9334,11 +9266,9 @@
         <v>521301.7536450737</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9595,11 +9525,9 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9634,11 +9562,9 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9673,11 +9599,9 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9712,11 +9636,9 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9751,11 +9673,9 @@
         <v>411009.7275450737</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9790,11 +9710,9 @@
         <v>409009.0167450737</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9829,11 +9747,9 @@
         <v>409009.0167450737</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9868,11 +9784,9 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9907,11 +9821,9 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9946,11 +9858,9 @@
         <v>408485.8927450737</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9985,11 +9895,9 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10024,11 +9932,9 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10063,11 +9969,9 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10102,11 +10006,9 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10141,11 +10043,9 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10180,11 +10080,9 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10219,11 +10117,9 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10258,11 +10154,9 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10297,11 +10191,9 @@
         <v>320380.8484450737</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10336,11 +10228,9 @@
         <v>321064.7234450737</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10375,11 +10265,9 @@
         <v>320786.2175450737</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10414,11 +10302,9 @@
         <v>321919.7325450737</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10453,11 +10339,9 @@
         <v>331806.7364450737</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10492,11 +10376,9 @@
         <v>347912.5764450738</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10531,11 +10413,9 @@
         <v>315571.9673450738</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10570,11 +10450,9 @@
         <v>302095.7168450737</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10609,11 +10487,9 @@
         <v>322762.7168450737</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10648,11 +10524,9 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10687,11 +10561,9 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10726,11 +10598,9 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10765,11 +10635,9 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10804,11 +10672,9 @@
         <v>310130.1953450737</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10843,11 +10709,9 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10882,11 +10746,9 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10921,11 +10783,9 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10960,11 +10820,9 @@
         <v>213197.2219145652</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10999,11 +10857,9 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11038,11 +10894,9 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -11077,11 +10931,9 @@
         <v>267637.7448145652</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11116,11 +10968,9 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11155,11 +11005,9 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11194,11 +11042,9 @@
         <v>65024.67871456518</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11233,11 +11079,9 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11272,11 +11116,9 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11311,11 +11153,9 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -11350,11 +11190,9 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11389,11 +11227,9 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -11428,11 +11264,9 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11467,11 +11301,9 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11506,11 +11338,9 @@
         <v>199709.2280145652</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11545,11 +11375,9 @@
         <v>199709.2280145652</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11584,11 +11412,9 @@
         <v>249348.0498258152</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11623,11 +11449,9 @@
         <v>218523.3596258152</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11662,11 +11486,9 @@
         <v>223789.2273258152</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11701,11 +11523,9 @@
         <v>214360.9286258152</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11740,11 +11560,9 @@
         <v>214360.9286258152</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11779,11 +11597,9 @@
         <v>204241.6091258152</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11818,11 +11634,9 @@
         <v>359461.6091258152</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11857,11 +11671,9 @@
         <v>560307.1613258153</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11933,11 +11745,9 @@
         <v>659135.1842258152</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -16597,18 +16407,16 @@
         <v>3578017.927964743</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr"/>
     </row>
     <row r="435">
@@ -16634,15 +16442,11 @@
         <v>3892857.956464743</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16671,15 +16475,11 @@
         <v>3144974.512264743</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16708,15 +16508,11 @@
         <v>3212822.037264743</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16745,15 +16541,11 @@
         <v>3176386.582964743</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16782,15 +16574,11 @@
         <v>2466123.670664744</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16823,11 +16611,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16860,11 +16644,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16897,11 +16677,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16934,11 +16710,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16971,11 +16743,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17008,11 +16776,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17045,11 +16809,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17082,11 +16842,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17119,11 +16875,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17156,11 +16908,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17193,11 +16941,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17230,11 +16974,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17267,11 +17007,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17304,11 +17040,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17341,11 +17073,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17378,11 +17106,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17415,11 +17139,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17448,15 +17168,11 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17485,15 +17201,11 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17522,15 +17234,11 @@
         <v>3336534.09533953</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17559,15 +17267,11 @@
         <v>3329415.50163953</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17596,15 +17300,11 @@
         <v>3329766.68343953</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17633,15 +17333,11 @@
         <v>3292083.76713953</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17670,15 +17366,11 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17707,15 +17399,11 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17744,15 +17432,11 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17781,15 +17465,11 @@
         <v>3068830.57613953</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17818,15 +17498,11 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17855,15 +17531,11 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17892,15 +17564,11 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17933,11 +17601,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17970,11 +17634,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +17667,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18044,11 +17700,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18081,11 +17733,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18114,16 +17762,14 @@
         <v>2836847.34323953</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
       <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -18149,7 +17795,7 @@
         <v>2916810.810839531</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18182,7 +17828,7 @@
         <v>3025656.721939531</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18215,7 +17861,7 @@
         <v>2918335.349339531</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18248,7 +17894,7 @@
         <v>2883160.826039531</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18281,7 +17927,7 @@
         <v>2861624.625184629</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18314,7 +17960,7 @@
         <v>2877716.626385022</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18347,7 +17993,7 @@
         <v>2838743.681111007</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18380,7 +18026,7 @@
         <v>2942164.352611007</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18413,7 +18059,7 @@
         <v>3219283.532911007</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18446,7 +18092,7 @@
         <v>3253394.641011007</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18479,7 +18125,7 @@
         <v>3353860.233111007</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18545,7 +18191,7 @@
         <v>3321861.166500976</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18611,7 +18257,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18644,7 +18290,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18710,7 +18356,7 @@
         <v>3330953.867900976</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18743,7 +18389,7 @@
         <v>3287172.954500976</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18776,7 +18422,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18809,7 +18455,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18842,7 +18488,7 @@
         <v>3228356.106200976</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18875,7 +18521,7 @@
         <v>3256700.264900976</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18908,7 +18554,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18941,7 +18587,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18974,7 +18620,7 @@
         <v>2966461.963000976</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19007,7 +18653,7 @@
         <v>2908556.586600976</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19040,7 +18686,7 @@
         <v>2630778.985100976</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19073,7 +18719,7 @@
         <v>2516932.718700976</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19106,7 +18752,7 @@
         <v>2435452.333800976</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19139,7 +18785,7 @@
         <v>2437397.969800976</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19172,7 +18818,7 @@
         <v>2557916.341600976</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19205,7 +18851,7 @@
         <v>2550416.341600976</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19238,7 +18884,7 @@
         <v>2760049.045800976</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19271,7 +18917,7 @@
         <v>2760049.045800976</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19304,7 +18950,7 @@
         <v>2709369.437300976</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19337,7 +18983,7 @@
         <v>2652055.188200976</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19370,7 +19016,7 @@
         <v>2656372.052900976</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19403,7 +19049,7 @@
         <v>2667719.808800976</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19436,7 +19082,7 @@
         <v>2689690.146200976</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19469,7 +19115,7 @@
         <v>2686134.510400976</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19502,7 +19148,7 @@
         <v>2173098.038800976</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19535,7 +19181,7 @@
         <v>2019320.680800976</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19568,7 +19214,7 @@
         <v>1830318.462200976</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19601,7 +19247,7 @@
         <v>1775552.875600976</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19634,7 +19280,7 @@
         <v>1883625.649800976</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19667,7 +19313,7 @@
         <v>1853240.422400976</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19700,7 +19346,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19733,7 +19379,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19766,7 +19412,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19799,7 +19445,7 @@
         <v>2087691.138500976</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19832,7 +19478,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19865,7 +19511,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19898,7 +19544,7 @@
         <v>2093226.163300976</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19931,7 +19577,7 @@
         <v>2093321.230700976</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19964,7 +19610,7 @@
         <v>2090929.652200976</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19997,7 +19643,7 @@
         <v>2090929.652200976</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20129,7 +19775,7 @@
         <v>2237860.586934309</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20162,7 +19808,7 @@
         <v>2237860.586934309</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20195,7 +19841,7 @@
         <v>2224535.07673431</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -26377,6 +26023,6 @@
       <c r="M725" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest LBA.xlsx
+++ b/BackTest/2019-11-02 BackTest LBA.xlsx
@@ -1144,17 +1144,11 @@
         <v>-735867.3427263666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1191,7 +1185,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1534,9 +1528,11 @@
         <v>-234023.2407010501</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1571,9 +1567,11 @@
         <v>-386657.0152010501</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2037,9 +2035,11 @@
         <v>-376246.7176010502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2269,9 +2269,11 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2306,9 +2308,11 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2380,9 +2384,11 @@
         <v>-166285.0769010502</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -7412,11 +7418,9 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7451,11 +7455,9 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -10006,9 +10008,11 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10043,9 +10047,11 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10080,9 +10086,11 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10117,9 +10125,11 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10191,9 +10201,11 @@
         <v>320380.8484450737</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10783,9 +10795,11 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10820,9 +10834,11 @@
         <v>213197.2219145652</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10857,9 +10873,11 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10894,9 +10912,11 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10931,9 +10951,11 @@
         <v>267637.7448145652</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>23.4</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10968,9 +10990,11 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11005,9 +11029,11 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11042,9 +11068,11 @@
         <v>65024.67871456518</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>23.3</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11079,9 +11107,11 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11116,9 +11146,11 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11153,9 +11185,11 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -16407,16 +16441,18 @@
         <v>3578017.927964743</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L434" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
       <c r="M434" t="inlineStr"/>
     </row>
     <row r="435">
@@ -16442,11 +16478,15 @@
         <v>3892857.956464743</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16475,11 +16515,15 @@
         <v>3144974.512264743</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16508,11 +16552,15 @@
         <v>3212822.037264743</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16541,11 +16589,15 @@
         <v>3176386.582964743</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16574,11 +16626,15 @@
         <v>2466123.670664744</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16611,7 +16667,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16644,7 +16704,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +16741,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16710,7 +16778,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16743,7 +16815,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16776,7 +16852,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16809,7 +16889,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16842,7 +16926,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16875,7 +16963,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +17000,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16941,7 +17037,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16974,7 +17074,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17007,7 +17111,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17040,7 +17148,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17073,7 +17185,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17106,7 +17222,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17139,7 +17259,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +17292,15 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17201,11 +17329,15 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17234,11 +17366,15 @@
         <v>3336534.09533953</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17267,11 +17403,15 @@
         <v>3329415.50163953</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17300,11 +17440,15 @@
         <v>3329766.68343953</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17333,11 +17477,15 @@
         <v>3292083.76713953</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17366,11 +17514,15 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17399,11 +17551,15 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17432,11 +17588,15 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17465,11 +17625,15 @@
         <v>3068830.57613953</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17498,11 +17662,15 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17531,11 +17699,15 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17564,11 +17736,15 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17601,7 +17777,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17634,7 +17814,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17667,7 +17851,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17700,7 +17888,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17733,7 +17925,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17766,7 +17962,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17799,7 +17999,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17832,7 +18036,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17865,7 +18073,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17898,7 +18110,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17931,7 +18147,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17964,7 +18184,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17997,7 +18221,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18030,7 +18258,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +18295,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18096,7 +18332,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18125,14 +18365,16 @@
         <v>3353860.233111007</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="inlineStr"/>
     </row>
     <row r="487">
@@ -18158,7 +18400,7 @@
         <v>3554036.292800976</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18191,7 +18433,7 @@
         <v>3321861.166500976</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18224,7 +18466,7 @@
         <v>3259220.999800976</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18257,7 +18499,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18290,7 +18532,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18323,7 +18565,7 @@
         <v>3331953.867900976</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18356,7 +18598,7 @@
         <v>3330953.867900976</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18389,7 +18631,7 @@
         <v>3287172.954500976</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18422,7 +18664,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18455,7 +18697,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18488,7 +18730,7 @@
         <v>3228356.106200976</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18521,7 +18763,7 @@
         <v>3256700.264900976</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18554,7 +18796,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18587,7 +18829,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18620,7 +18862,7 @@
         <v>2966461.963000976</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18653,7 +18895,7 @@
         <v>2908556.586600976</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18686,7 +18928,7 @@
         <v>2630778.985100976</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18950,7 +19192,7 @@
         <v>2709369.437300976</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19082,7 +19324,7 @@
         <v>2689690.146200976</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19115,7 +19357,7 @@
         <v>2686134.510400976</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
